--- a/curation/draft/collection/collection_specialization_DS.xlsx
+++ b/curation/draft/collection/collection_specialization_DS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB7AE8E-D77C-684F-AA2B-B758DE03FAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76257EDC-851E-7941-B20A-C892AF173423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="1080" windowWidth="29900" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Collection_DS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_DS!$A$1:$AH$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_DS!$A$1:$AJ$155</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="167">
   <si>
     <t>package_date</t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <t>categories</t>
+  </si>
+  <si>
+    <t>derived_variable</t>
+  </si>
+  <si>
+    <t>derivation_description</t>
   </si>
 </sst>
 </file>
@@ -921,12 +927,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH155"/>
+  <dimension ref="A1:AJ155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
+      <selection pane="bottomLeft" activeCell="X104" sqref="X104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -939,15 +945,15 @@
     <col min="15" max="15" width="18.33203125" customWidth="1"/>
     <col min="16" max="16" width="46.1640625" customWidth="1"/>
     <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="25" max="25" width="20.5" customWidth="1"/>
-    <col min="26" max="26" width="42.1640625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="22.33203125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="13.83203125" customWidth="1"/>
-    <col min="29" max="29" width="36.5" customWidth="1"/>
-    <col min="30" max="30" width="17.83203125" customWidth="1"/>
+    <col min="27" max="27" width="20.5" customWidth="1"/>
+    <col min="28" max="28" width="42.1640625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="22.33203125" style="4" customWidth="1"/>
+    <col min="30" max="30" width="13.83203125" customWidth="1"/>
+    <col min="31" max="31" width="36.5" customWidth="1"/>
+    <col min="32" max="32" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,40 +1024,46 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>123</v>
       </c>
@@ -1103,28 +1115,28 @@
       <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AC2" t="s">
+      <c r="AA2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AE2" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>84</v>
       </c>
-      <c r="AE2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+      <c r="AG2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>123</v>
       </c>
@@ -1176,23 +1188,23 @@
       <c r="W3" t="s">
         <v>41</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>86</v>
       </c>
-      <c r="Y3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AC3" s="4"/>
-      <c r="AE3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+      <c r="AA3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AE3" s="4"/>
+      <c r="AG3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>123</v>
       </c>
@@ -1241,28 +1253,28 @@
       <c r="U4">
         <v>200</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>77</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>78</v>
       </c>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AC4" t="s">
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AE4" t="s">
         <v>143</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>144</v>
       </c>
-      <c r="AE4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+      <c r="AG4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>123</v>
       </c>
@@ -1311,16 +1323,16 @@
       <c r="U5">
         <v>10</v>
       </c>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AE5" t="s">
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AG5" t="s">
         <v>59</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>66</v>
       </c>
@@ -1372,28 +1384,28 @@
       <c r="W6" t="s">
         <v>41</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AC6" t="s">
+      <c r="AA6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AE6" t="s">
         <v>44</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AF6" t="s">
         <v>45</v>
       </c>
-      <c r="AE6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AG6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -1445,16 +1457,16 @@
       <c r="W7" t="s">
         <v>41</v>
       </c>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AE7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AG7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -1503,28 +1515,28 @@
       <c r="U8">
         <v>200</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>52</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AA8" t="s">
         <v>53</v>
       </c>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AC8" t="s">
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AE8" t="s">
         <v>70</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AF8" t="s">
         <v>66</v>
       </c>
-      <c r="AE8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AG8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -1573,16 +1585,16 @@
       <c r="U9">
         <v>10</v>
       </c>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AE9" t="s">
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AG9" t="s">
         <v>59</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>80</v>
       </c>
@@ -1634,26 +1646,26 @@
       <c r="W10" t="s">
         <v>41</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>43</v>
       </c>
-      <c r="Y10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="AA10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE10" t="s">
         <v>83</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>84</v>
       </c>
-      <c r="AE10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>80</v>
       </c>
@@ -1705,25 +1717,25 @@
       <c r="W11" t="s">
         <v>41</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>86</v>
       </c>
-      <c r="Y11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AC11" s="4" t="s">
+      <c r="AA11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AE11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AE11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AG11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -1772,27 +1784,27 @@
       <c r="U12">
         <v>200</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Z12" t="s">
         <v>89</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
         <v>90</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AB12" t="s">
         <v>91</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
         <v>82</v>
       </c>
-      <c r="AC12" s="4"/>
-      <c r="AE12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AE12" s="4"/>
+      <c r="AG12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>80</v>
       </c>
@@ -1841,17 +1853,17 @@
       <c r="U13">
         <v>200</v>
       </c>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AC13" s="4"/>
-      <c r="AE13" t="s">
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AE13" s="4"/>
+      <c r="AG13" t="s">
         <v>92</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>80</v>
       </c>
@@ -1900,17 +1912,17 @@
       <c r="U14">
         <v>10</v>
       </c>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AC14" s="4"/>
-      <c r="AE14" t="s">
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AE14" s="4"/>
+      <c r="AG14" t="s">
         <v>59</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>95</v>
       </c>
@@ -1962,27 +1974,27 @@
       <c r="W15" t="s">
         <v>41</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Z15" t="s">
         <v>43</v>
       </c>
-      <c r="Y15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA15"/>
-      <c r="AC15" t="s">
+      <c r="AA15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC15"/>
+      <c r="AE15" t="s">
         <v>83</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>84</v>
       </c>
-      <c r="AE15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>95</v>
       </c>
@@ -2034,24 +2046,24 @@
       <c r="W16" t="s">
         <v>41</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Z16" t="s">
         <v>86</v>
       </c>
-      <c r="Y16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA16"/>
-      <c r="AC16" s="4" t="s">
+      <c r="AA16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC16"/>
+      <c r="AE16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AE16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>95</v>
       </c>
@@ -2100,26 +2112,26 @@
       <c r="U17">
         <v>200</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Z17" t="s">
         <v>89</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="AA17" t="s">
         <v>90</v>
       </c>
-      <c r="Z17" s="4" t="s">
+      <c r="AB17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
         <v>160</v>
       </c>
-      <c r="AE17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>95</v>
       </c>
@@ -2168,15 +2180,15 @@
       <c r="U18">
         <v>200</v>
       </c>
-      <c r="AA18"/>
-      <c r="AE18" t="s">
+      <c r="AC18"/>
+      <c r="AG18" t="s">
         <v>92</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>95</v>
       </c>
@@ -2225,14 +2237,14 @@
       <c r="U19">
         <v>10</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AG19" t="s">
         <v>59</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -2284,27 +2296,27 @@
       <c r="W20" t="s">
         <v>41</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Z20" t="s">
         <v>43</v>
       </c>
-      <c r="Y20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA20"/>
-      <c r="AC20" t="s">
+      <c r="AA20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC20"/>
+      <c r="AE20" t="s">
         <v>83</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AF20" t="s">
         <v>84</v>
       </c>
-      <c r="AE20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>99</v>
       </c>
@@ -2356,24 +2368,24 @@
       <c r="W21" t="s">
         <v>41</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Z21" t="s">
         <v>86</v>
       </c>
-      <c r="Y21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA21"/>
-      <c r="AC21" s="4" t="s">
+      <c r="AA21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC21"/>
+      <c r="AE21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AE21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>99</v>
       </c>
@@ -2422,26 +2434,26 @@
       <c r="U22">
         <v>200</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Z22" t="s">
         <v>89</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AA22" t="s">
         <v>90</v>
       </c>
-      <c r="Z22" s="4" t="s">
+      <c r="AB22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AC22" t="s">
         <v>101</v>
       </c>
-      <c r="AE22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>99</v>
       </c>
@@ -2490,15 +2502,15 @@
       <c r="U23">
         <v>10</v>
       </c>
-      <c r="AA23"/>
-      <c r="AE23" t="s">
+      <c r="AC23"/>
+      <c r="AG23" t="s">
         <v>59</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>103</v>
       </c>
@@ -2550,27 +2562,27 @@
       <c r="W24" t="s">
         <v>41</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Z24" t="s">
         <v>43</v>
       </c>
-      <c r="Y24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA24"/>
-      <c r="AC24" t="s">
+      <c r="AA24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC24"/>
+      <c r="AE24" t="s">
         <v>83</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AF24" t="s">
         <v>84</v>
       </c>
-      <c r="AE24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>103</v>
       </c>
@@ -2622,24 +2634,24 @@
       <c r="W25" t="s">
         <v>41</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Z25" t="s">
         <v>86</v>
       </c>
-      <c r="Y25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA25"/>
-      <c r="AC25" s="4" t="s">
+      <c r="AA25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC25"/>
+      <c r="AE25" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AE25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>103</v>
       </c>
@@ -2688,26 +2700,26 @@
       <c r="U26">
         <v>200</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Z26" t="s">
         <v>89</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="AA26" t="s">
         <v>90</v>
       </c>
-      <c r="Z26" s="4" t="s">
+      <c r="AB26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AC26" t="s">
         <v>105</v>
       </c>
-      <c r="AE26" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>103</v>
       </c>
@@ -2756,15 +2768,15 @@
       <c r="U27">
         <v>10</v>
       </c>
-      <c r="AA27"/>
-      <c r="AE27" t="s">
+      <c r="AC27"/>
+      <c r="AG27" t="s">
         <v>59</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AH27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>107</v>
       </c>
@@ -2816,27 +2828,27 @@
       <c r="W28" t="s">
         <v>41</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Z28" t="s">
         <v>43</v>
       </c>
-      <c r="Y28" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA28"/>
-      <c r="AC28" t="s">
+      <c r="AA28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC28"/>
+      <c r="AE28" t="s">
         <v>83</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AF28" t="s">
         <v>84</v>
       </c>
-      <c r="AE28" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>107</v>
       </c>
@@ -2888,24 +2900,24 @@
       <c r="W29" t="s">
         <v>41</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Z29" t="s">
         <v>86</v>
       </c>
-      <c r="Y29" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA29"/>
-      <c r="AC29" s="4" t="s">
+      <c r="AA29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC29"/>
+      <c r="AE29" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AE29" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>107</v>
       </c>
@@ -2954,26 +2966,26 @@
       <c r="U30">
         <v>200</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Z30" t="s">
         <v>89</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="AA30" t="s">
         <v>90</v>
       </c>
-      <c r="Z30" s="4" t="s">
+      <c r="AB30" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AC30" t="s">
         <v>109</v>
       </c>
-      <c r="AE30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>107</v>
       </c>
@@ -3022,15 +3034,15 @@
       <c r="U31">
         <v>10</v>
       </c>
-      <c r="AA31"/>
-      <c r="AE31" t="s">
+      <c r="AC31"/>
+      <c r="AG31" t="s">
         <v>59</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AH31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>111</v>
       </c>
@@ -3082,27 +3094,27 @@
       <c r="W32" t="s">
         <v>41</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Z32" t="s">
         <v>43</v>
       </c>
-      <c r="Y32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA32"/>
-      <c r="AC32" t="s">
+      <c r="AA32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC32"/>
+      <c r="AE32" t="s">
         <v>83</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AF32" t="s">
         <v>84</v>
       </c>
-      <c r="AE32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>111</v>
       </c>
@@ -3154,24 +3166,24 @@
       <c r="W33" t="s">
         <v>41</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Z33" t="s">
         <v>86</v>
       </c>
-      <c r="Y33" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA33"/>
-      <c r="AC33" s="4" t="s">
+      <c r="AA33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC33"/>
+      <c r="AE33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AE33" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>111</v>
       </c>
@@ -3220,26 +3232,26 @@
       <c r="U34">
         <v>200</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Z34" t="s">
         <v>89</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="AA34" t="s">
         <v>90</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AB34" t="s">
         <v>114</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AC34" t="s">
         <v>113</v>
       </c>
-      <c r="AE34" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>111</v>
       </c>
@@ -3288,15 +3300,15 @@
       <c r="U35">
         <v>10</v>
       </c>
-      <c r="AA35"/>
-      <c r="AE35" t="s">
+      <c r="AC35"/>
+      <c r="AG35" t="s">
         <v>59</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AH35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>115</v>
       </c>
@@ -3348,27 +3360,27 @@
       <c r="W36" t="s">
         <v>41</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Z36" t="s">
         <v>43</v>
       </c>
-      <c r="Y36" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA36"/>
-      <c r="AC36" t="s">
+      <c r="AA36" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC36"/>
+      <c r="AE36" t="s">
         <v>83</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AF36" t="s">
         <v>84</v>
       </c>
-      <c r="AE36" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG36" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>115</v>
       </c>
@@ -3420,24 +3432,24 @@
       <c r="W37" t="s">
         <v>41</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Z37" t="s">
         <v>86</v>
       </c>
-      <c r="Y37" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA37"/>
-      <c r="AC37" s="4" t="s">
+      <c r="AA37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC37"/>
+      <c r="AE37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AE37" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>115</v>
       </c>
@@ -3486,26 +3498,26 @@
       <c r="U38">
         <v>200</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Z38" t="s">
         <v>89</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="AA38" t="s">
         <v>90</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AB38" t="s">
         <v>118</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AC38" t="s">
         <v>117</v>
       </c>
-      <c r="AE38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>115</v>
       </c>
@@ -3554,15 +3566,15 @@
       <c r="U39">
         <v>10</v>
       </c>
-      <c r="AA39"/>
-      <c r="AE39" t="s">
+      <c r="AC39"/>
+      <c r="AG39" t="s">
         <v>59</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AH39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>123</v>
       </c>
@@ -3614,27 +3626,27 @@
       <c r="W40" t="s">
         <v>41</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Z40" t="s">
         <v>43</v>
       </c>
-      <c r="Y40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA40"/>
-      <c r="AC40" t="s">
+      <c r="AA40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC40"/>
+      <c r="AE40" t="s">
         <v>83</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AF40" t="s">
         <v>84</v>
       </c>
-      <c r="AE40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>123</v>
       </c>
@@ -3686,24 +3698,24 @@
       <c r="W41" t="s">
         <v>41</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Z41" t="s">
         <v>86</v>
       </c>
-      <c r="Y41" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA41"/>
-      <c r="AC41" s="4" t="s">
+      <c r="AA41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC41"/>
+      <c r="AE41" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AE41" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>123</v>
       </c>
@@ -3752,26 +3764,26 @@
       <c r="U42">
         <v>200</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Z42" t="s">
         <v>89</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="AA42" t="s">
         <v>90</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AB42" t="s">
         <v>153</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AC42" t="s">
         <v>152</v>
       </c>
-      <c r="AE42" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>123</v>
       </c>
@@ -3820,15 +3832,15 @@
       <c r="U43">
         <v>10</v>
       </c>
-      <c r="AA43"/>
-      <c r="AE43" t="s">
+      <c r="AC43"/>
+      <c r="AG43" t="s">
         <v>59</v>
       </c>
-      <c r="AF43" t="s">
+      <c r="AH43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>119</v>
       </c>
@@ -3880,27 +3892,27 @@
       <c r="W44" t="s">
         <v>41</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Z44" t="s">
         <v>43</v>
       </c>
-      <c r="Y44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA44"/>
-      <c r="AC44" t="s">
+      <c r="AA44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC44"/>
+      <c r="AE44" t="s">
         <v>83</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AF44" t="s">
         <v>84</v>
       </c>
-      <c r="AE44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>119</v>
       </c>
@@ -3952,24 +3964,24 @@
       <c r="W45" t="s">
         <v>41</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Z45" t="s">
         <v>86</v>
       </c>
-      <c r="Y45" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA45"/>
-      <c r="AC45" s="4" t="s">
+      <c r="AA45" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC45"/>
+      <c r="AE45" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AE45" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG45" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>119</v>
       </c>
@@ -4018,26 +4030,26 @@
       <c r="U46">
         <v>200</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Z46" t="s">
         <v>89</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="AA46" t="s">
         <v>90</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AB46" t="s">
         <v>122</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AC46" t="s">
         <v>121</v>
       </c>
-      <c r="AE46" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG46" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>119</v>
       </c>
@@ -4086,15 +4098,15 @@
       <c r="U47">
         <v>10</v>
       </c>
-      <c r="AA47"/>
-      <c r="AE47" t="s">
+      <c r="AC47"/>
+      <c r="AG47" t="s">
         <v>59</v>
       </c>
-      <c r="AF47" t="s">
+      <c r="AH47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>123</v>
       </c>
@@ -4146,27 +4158,27 @@
       <c r="W48" t="s">
         <v>41</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Z48" t="s">
         <v>43</v>
       </c>
-      <c r="Y48" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA48"/>
-      <c r="AC48" t="s">
+      <c r="AA48" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC48"/>
+      <c r="AE48" t="s">
         <v>83</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="AF48" t="s">
         <v>84</v>
       </c>
-      <c r="AE48" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG48" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>123</v>
       </c>
@@ -4218,24 +4230,24 @@
       <c r="W49" t="s">
         <v>41</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Z49" t="s">
         <v>86</v>
       </c>
-      <c r="Y49" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA49"/>
-      <c r="AC49" s="4" t="s">
+      <c r="AA49" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC49"/>
+      <c r="AE49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AE49" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG49" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>123</v>
       </c>
@@ -4284,26 +4296,26 @@
       <c r="U50">
         <v>200</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Z50" t="s">
         <v>89</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="AA50" t="s">
         <v>90</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AB50" t="s">
         <v>126</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AC50" t="s">
         <v>125</v>
       </c>
-      <c r="AE50" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG50" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>123</v>
       </c>
@@ -4352,15 +4364,15 @@
       <c r="U51">
         <v>10</v>
       </c>
-      <c r="AA51"/>
-      <c r="AE51" t="s">
+      <c r="AC51"/>
+      <c r="AG51" t="s">
         <v>59</v>
       </c>
-      <c r="AF51" t="s">
+      <c r="AH51" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>80</v>
       </c>
@@ -4412,26 +4424,26 @@
       <c r="W52" t="s">
         <v>41</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Z52" t="s">
         <v>43</v>
       </c>
-      <c r="Y52" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC52" t="s">
+      <c r="AA52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE52" t="s">
         <v>83</v>
       </c>
-      <c r="AD52" t="s">
+      <c r="AF52" t="s">
         <v>84</v>
       </c>
-      <c r="AE52" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>80</v>
       </c>
@@ -4483,23 +4495,23 @@
       <c r="W53" t="s">
         <v>41</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Z53" t="s">
         <v>86</v>
       </c>
-      <c r="Y53" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC53" s="4" t="s">
+      <c r="AA53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE53" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AE53" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>80</v>
       </c>
@@ -4548,29 +4560,29 @@
       <c r="U54">
         <v>200</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Z54" t="s">
         <v>89</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="AA54" t="s">
         <v>90</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AB54" t="s">
         <v>91</v>
       </c>
-      <c r="AA54" s="4" t="s">
+      <c r="AC54" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AC54" t="s">
+      <c r="AE54" t="s">
         <v>91</v>
       </c>
-      <c r="AE54" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG54" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>80</v>
       </c>
@@ -4619,14 +4631,14 @@
       <c r="U55">
         <v>200</v>
       </c>
-      <c r="AE55" t="s">
+      <c r="AG55" t="s">
         <v>92</v>
       </c>
-      <c r="AF55" t="s">
+      <c r="AH55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>80</v>
       </c>
@@ -4675,14 +4687,14 @@
       <c r="U56">
         <v>10</v>
       </c>
-      <c r="AE56" t="s">
+      <c r="AG56" t="s">
         <v>59</v>
       </c>
-      <c r="AF56" t="s">
+      <c r="AH56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>95</v>
       </c>
@@ -4734,27 +4746,27 @@
       <c r="W57" t="s">
         <v>41</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Z57" t="s">
         <v>43</v>
       </c>
-      <c r="Y57" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA57"/>
-      <c r="AC57" t="s">
+      <c r="AA57" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC57"/>
+      <c r="AE57" t="s">
         <v>83</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AF57" t="s">
         <v>84</v>
       </c>
-      <c r="AE57" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG57" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>95</v>
       </c>
@@ -4806,24 +4818,24 @@
       <c r="W58" t="s">
         <v>41</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Z58" t="s">
         <v>86</v>
       </c>
-      <c r="Y58" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA58"/>
-      <c r="AC58" s="4" t="s">
+      <c r="AA58" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC58"/>
+      <c r="AE58" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AE58" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG58" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>95</v>
       </c>
@@ -4872,26 +4884,26 @@
       <c r="U59">
         <v>200</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Z59" t="s">
         <v>89</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="AA59" t="s">
         <v>90</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AB59" t="s">
         <v>98</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AC59" t="s">
         <v>160</v>
       </c>
-      <c r="AE59" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG59" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>95</v>
       </c>
@@ -4940,15 +4952,15 @@
       <c r="U60">
         <v>200</v>
       </c>
-      <c r="AA60"/>
-      <c r="AE60" t="s">
+      <c r="AC60"/>
+      <c r="AG60" t="s">
         <v>92</v>
       </c>
-      <c r="AF60" t="s">
+      <c r="AH60" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>95</v>
       </c>
@@ -4997,15 +5009,15 @@
       <c r="U61">
         <v>10</v>
       </c>
-      <c r="AA61"/>
-      <c r="AE61" t="s">
+      <c r="AC61"/>
+      <c r="AG61" t="s">
         <v>59</v>
       </c>
-      <c r="AF61" t="s">
+      <c r="AH61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>99</v>
       </c>
@@ -5057,27 +5069,27 @@
       <c r="W62" t="s">
         <v>41</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Z62" t="s">
         <v>43</v>
       </c>
-      <c r="Y62" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA62"/>
-      <c r="AC62" t="s">
+      <c r="AA62" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC62"/>
+      <c r="AE62" t="s">
         <v>83</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AF62" t="s">
         <v>84</v>
       </c>
-      <c r="AE62" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG62" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>99</v>
       </c>
@@ -5129,24 +5141,24 @@
       <c r="W63" t="s">
         <v>41</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Z63" t="s">
         <v>86</v>
       </c>
-      <c r="Y63" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA63"/>
-      <c r="AC63" s="4" t="s">
+      <c r="AA63" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC63"/>
+      <c r="AE63" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AE63" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG63" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>99</v>
       </c>
@@ -5195,26 +5207,26 @@
       <c r="U64">
         <v>200</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Z64" t="s">
         <v>89</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="AA64" t="s">
         <v>90</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AB64" t="s">
         <v>102</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AC64" t="s">
         <v>101</v>
       </c>
-      <c r="AE64" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG64" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>99</v>
       </c>
@@ -5263,15 +5275,15 @@
       <c r="U65">
         <v>10</v>
       </c>
-      <c r="AA65"/>
-      <c r="AE65" t="s">
+      <c r="AC65"/>
+      <c r="AG65" t="s">
         <v>59</v>
       </c>
-      <c r="AF65" t="s">
+      <c r="AH65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>107</v>
       </c>
@@ -5323,27 +5335,27 @@
       <c r="W66" t="s">
         <v>41</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Z66" t="s">
         <v>43</v>
       </c>
-      <c r="Y66" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA66"/>
-      <c r="AC66" t="s">
+      <c r="AA66" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC66"/>
+      <c r="AE66" t="s">
         <v>83</v>
       </c>
-      <c r="AD66" t="s">
+      <c r="AF66" t="s">
         <v>84</v>
       </c>
-      <c r="AE66" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF66" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG66" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>107</v>
       </c>
@@ -5395,24 +5407,24 @@
       <c r="W67" t="s">
         <v>41</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Z67" t="s">
         <v>86</v>
       </c>
-      <c r="Y67" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA67"/>
-      <c r="AC67" s="4" t="s">
+      <c r="AA67" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC67"/>
+      <c r="AE67" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AE67" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG67" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>107</v>
       </c>
@@ -5461,26 +5473,26 @@
       <c r="U68">
         <v>200</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Z68" t="s">
         <v>89</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="AA68" t="s">
         <v>90</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AB68" t="s">
         <v>110</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AC68" t="s">
         <v>109</v>
       </c>
-      <c r="AE68" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF68" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG68" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>107</v>
       </c>
@@ -5529,15 +5541,15 @@
       <c r="U69">
         <v>10</v>
       </c>
-      <c r="AA69"/>
-      <c r="AE69" t="s">
+      <c r="AC69"/>
+      <c r="AG69" t="s">
         <v>59</v>
       </c>
-      <c r="AF69" t="s">
+      <c r="AH69" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>111</v>
       </c>
@@ -5589,27 +5601,27 @@
       <c r="W70" t="s">
         <v>41</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Z70" t="s">
         <v>43</v>
       </c>
-      <c r="Y70" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA70"/>
-      <c r="AC70" t="s">
+      <c r="AA70" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC70"/>
+      <c r="AE70" t="s">
         <v>83</v>
       </c>
-      <c r="AD70" t="s">
+      <c r="AF70" t="s">
         <v>84</v>
       </c>
-      <c r="AE70" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG70" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>111</v>
       </c>
@@ -5661,24 +5673,24 @@
       <c r="W71" t="s">
         <v>41</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Z71" t="s">
         <v>86</v>
       </c>
-      <c r="Y71" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA71"/>
-      <c r="AC71" s="4" t="s">
+      <c r="AA71" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC71"/>
+      <c r="AE71" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AE71" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG71" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>111</v>
       </c>
@@ -5727,26 +5739,26 @@
       <c r="U72">
         <v>200</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Z72" t="s">
         <v>89</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="AA72" t="s">
         <v>90</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AB72" t="s">
         <v>114</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AC72" t="s">
         <v>113</v>
       </c>
-      <c r="AE72" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG72" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>111</v>
       </c>
@@ -5795,15 +5807,15 @@
       <c r="U73">
         <v>10</v>
       </c>
-      <c r="AA73"/>
-      <c r="AE73" t="s">
+      <c r="AC73"/>
+      <c r="AG73" t="s">
         <v>59</v>
       </c>
-      <c r="AF73" t="s">
+      <c r="AH73" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>115</v>
       </c>
@@ -5855,27 +5867,27 @@
       <c r="W74" t="s">
         <v>41</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Z74" t="s">
         <v>43</v>
       </c>
-      <c r="Y74" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA74"/>
-      <c r="AC74" t="s">
+      <c r="AA74" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC74"/>
+      <c r="AE74" t="s">
         <v>83</v>
       </c>
-      <c r="AD74" t="s">
+      <c r="AF74" t="s">
         <v>84</v>
       </c>
-      <c r="AE74" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG74" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>115</v>
       </c>
@@ -5927,24 +5939,24 @@
       <c r="W75" t="s">
         <v>41</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Z75" t="s">
         <v>86</v>
       </c>
-      <c r="Y75" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA75"/>
-      <c r="AC75" s="4" t="s">
+      <c r="AA75" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC75"/>
+      <c r="AE75" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AE75" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF75" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG75" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>115</v>
       </c>
@@ -5993,26 +6005,26 @@
       <c r="U76">
         <v>200</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Z76" t="s">
         <v>89</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="AA76" t="s">
         <v>90</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AB76" t="s">
         <v>118</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AC76" t="s">
         <v>117</v>
       </c>
-      <c r="AE76" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG76" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>115</v>
       </c>
@@ -6061,15 +6073,15 @@
       <c r="U77">
         <v>10</v>
       </c>
-      <c r="AA77"/>
-      <c r="AE77" t="s">
+      <c r="AC77"/>
+      <c r="AG77" t="s">
         <v>59</v>
       </c>
-      <c r="AF77" t="s">
+      <c r="AH77" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>123</v>
       </c>
@@ -6121,27 +6133,27 @@
       <c r="W78" t="s">
         <v>41</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Z78" t="s">
         <v>43</v>
       </c>
-      <c r="Y78" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA78"/>
-      <c r="AC78" t="s">
+      <c r="AA78" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC78"/>
+      <c r="AE78" t="s">
         <v>83</v>
       </c>
-      <c r="AD78" s="7" t="s">
+      <c r="AF78" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AE78" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF78" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG78" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>123</v>
       </c>
@@ -6193,24 +6205,24 @@
       <c r="W79" t="s">
         <v>41</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Z79" t="s">
         <v>86</v>
       </c>
-      <c r="Y79" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA79"/>
-      <c r="AC79" s="4" t="s">
+      <c r="AA79" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC79"/>
+      <c r="AE79" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AE79" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF79" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG79" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>123</v>
       </c>
@@ -6259,26 +6271,26 @@
       <c r="U80">
         <v>200</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Z80" t="s">
         <v>89</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="AA80" t="s">
         <v>90</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AB80" t="s">
         <v>153</v>
       </c>
-      <c r="AA80" t="s">
+      <c r="AC80" t="s">
         <v>152</v>
       </c>
-      <c r="AE80" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG80" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>123</v>
       </c>
@@ -6327,15 +6339,15 @@
       <c r="U81">
         <v>10</v>
       </c>
-      <c r="AA81"/>
-      <c r="AE81" t="s">
+      <c r="AC81"/>
+      <c r="AG81" t="s">
         <v>59</v>
       </c>
-      <c r="AF81" t="s">
+      <c r="AH81" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>119</v>
       </c>
@@ -6387,27 +6399,27 @@
       <c r="W82" t="s">
         <v>41</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Z82" t="s">
         <v>43</v>
       </c>
-      <c r="Y82" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA82"/>
-      <c r="AC82" t="s">
+      <c r="AA82" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC82"/>
+      <c r="AE82" t="s">
         <v>83</v>
       </c>
-      <c r="AD82" t="s">
+      <c r="AF82" t="s">
         <v>84</v>
       </c>
-      <c r="AE82" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF82" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG82" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>119</v>
       </c>
@@ -6459,24 +6471,24 @@
       <c r="W83" t="s">
         <v>41</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Z83" t="s">
         <v>86</v>
       </c>
-      <c r="Y83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA83"/>
-      <c r="AC83" s="4" t="s">
+      <c r="AA83" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC83"/>
+      <c r="AE83" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AE83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF83" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG83" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>119</v>
       </c>
@@ -6525,26 +6537,26 @@
       <c r="U84">
         <v>200</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Z84" t="s">
         <v>89</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="AA84" t="s">
         <v>90</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AB84" t="s">
         <v>122</v>
       </c>
-      <c r="AA84" t="s">
+      <c r="AC84" t="s">
         <v>121</v>
       </c>
-      <c r="AE84" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF84" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG84" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>119</v>
       </c>
@@ -6593,15 +6605,15 @@
       <c r="U85">
         <v>10</v>
       </c>
-      <c r="AA85"/>
-      <c r="AE85" t="s">
+      <c r="AC85"/>
+      <c r="AG85" t="s">
         <v>59</v>
       </c>
-      <c r="AF85" t="s">
+      <c r="AH85" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>123</v>
       </c>
@@ -6653,27 +6665,27 @@
       <c r="W86" t="s">
         <v>41</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Z86" t="s">
         <v>43</v>
       </c>
-      <c r="Y86" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA86"/>
-      <c r="AC86" t="s">
+      <c r="AA86" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC86"/>
+      <c r="AE86" t="s">
         <v>83</v>
       </c>
-      <c r="AD86" t="s">
+      <c r="AF86" t="s">
         <v>84</v>
       </c>
-      <c r="AE86" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF86" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG86" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>123</v>
       </c>
@@ -6725,24 +6737,24 @@
       <c r="W87" t="s">
         <v>41</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Z87" t="s">
         <v>86</v>
       </c>
-      <c r="Y87" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA87"/>
-      <c r="AC87" s="4" t="s">
+      <c r="AA87" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC87"/>
+      <c r="AE87" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AE87" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF87" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG87" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>123</v>
       </c>
@@ -6791,26 +6803,26 @@
       <c r="U88">
         <v>200</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Z88" t="s">
         <v>89</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="AA88" t="s">
         <v>90</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AB88" t="s">
         <v>126</v>
       </c>
-      <c r="AA88" t="s">
+      <c r="AC88" t="s">
         <v>161</v>
       </c>
-      <c r="AE88" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG88" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>123</v>
       </c>
@@ -6859,15 +6871,15 @@
       <c r="U89">
         <v>10</v>
       </c>
-      <c r="AA89"/>
-      <c r="AE89" t="s">
+      <c r="AC89"/>
+      <c r="AG89" t="s">
         <v>59</v>
       </c>
-      <c r="AF89" t="s">
+      <c r="AH89" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>33</v>
       </c>
@@ -6919,28 +6931,28 @@
       <c r="W90" t="s">
         <v>41</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Z90" t="s">
         <v>43</v>
       </c>
-      <c r="Y90" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z90"/>
-      <c r="AA90"/>
-      <c r="AC90" t="s">
+      <c r="AA90" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AE90" t="s">
         <v>44</v>
       </c>
-      <c r="AD90" t="s">
+      <c r="AF90" t="s">
         <v>45</v>
       </c>
-      <c r="AE90" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF90" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG90" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>33</v>
       </c>
@@ -6992,16 +7004,16 @@
       <c r="W91" t="s">
         <v>41</v>
       </c>
-      <c r="Z91"/>
-      <c r="AA91"/>
-      <c r="AE91" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF91" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AG91" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>33</v>
       </c>
@@ -7053,28 +7065,28 @@
       <c r="W92" t="s">
         <v>41</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Z92" t="s">
         <v>52</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="AA92" t="s">
         <v>53</v>
       </c>
-      <c r="Z92"/>
-      <c r="AA92"/>
-      <c r="AC92" t="s">
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AE92" t="s">
         <v>54</v>
       </c>
-      <c r="AD92" t="s">
+      <c r="AF92" t="s">
         <v>33</v>
       </c>
-      <c r="AE92" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF92" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG92" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>33</v>
       </c>
@@ -7123,16 +7135,16 @@
       <c r="U93">
         <v>10</v>
       </c>
-      <c r="Z93"/>
-      <c r="AA93"/>
-      <c r="AE93" t="s">
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AG93" t="s">
         <v>59</v>
       </c>
-      <c r="AF93" t="s">
+      <c r="AH93" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>33</v>
       </c>
@@ -7184,28 +7196,28 @@
       <c r="W94" t="s">
         <v>41</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Z94" t="s">
         <v>43</v>
       </c>
-      <c r="Y94" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z94"/>
-      <c r="AA94"/>
-      <c r="AC94" s="5" t="s">
+      <c r="AA94" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AE94" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AD94" t="s">
+      <c r="AF94" t="s">
         <v>45</v>
       </c>
-      <c r="AE94" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF94" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG94" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>33</v>
       </c>
@@ -7257,16 +7269,16 @@
       <c r="W95" t="s">
         <v>41</v>
       </c>
-      <c r="Z95"/>
-      <c r="AA95"/>
-      <c r="AE95" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF95" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AB95"/>
+      <c r="AC95"/>
+      <c r="AG95" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>33</v>
       </c>
@@ -7318,28 +7330,28 @@
       <c r="W96" t="s">
         <v>41</v>
       </c>
-      <c r="X96" t="s">
+      <c r="Z96" t="s">
         <v>52</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="AA96" t="s">
         <v>53</v>
       </c>
-      <c r="Z96"/>
-      <c r="AA96"/>
-      <c r="AC96" s="5" t="s">
+      <c r="AB96"/>
+      <c r="AC96"/>
+      <c r="AE96" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AD96" s="5" t="s">
+      <c r="AF96" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AE96" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF96" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG96" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>33</v>
       </c>
@@ -7388,16 +7400,16 @@
       <c r="U97">
         <v>10</v>
       </c>
-      <c r="Z97"/>
-      <c r="AA97"/>
-      <c r="AE97" t="s">
+      <c r="AB97"/>
+      <c r="AC97"/>
+      <c r="AG97" t="s">
         <v>59</v>
       </c>
-      <c r="AF97" t="s">
+      <c r="AH97" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>60</v>
       </c>
@@ -7449,28 +7461,28 @@
       <c r="W98" t="s">
         <v>41</v>
       </c>
-      <c r="X98" t="s">
+      <c r="Z98" t="s">
         <v>43</v>
       </c>
-      <c r="Y98" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z98"/>
-      <c r="AA98"/>
-      <c r="AC98" s="5" t="s">
+      <c r="AA98" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB98"/>
+      <c r="AC98"/>
+      <c r="AE98" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AD98" s="5" t="s">
+      <c r="AF98" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AE98" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF98" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG98" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>60</v>
       </c>
@@ -7522,16 +7534,16 @@
       <c r="W99" t="s">
         <v>41</v>
       </c>
-      <c r="Z99"/>
-      <c r="AA99"/>
-      <c r="AE99" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF99" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AB99"/>
+      <c r="AC99"/>
+      <c r="AG99" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>60</v>
       </c>
@@ -7580,28 +7592,28 @@
       <c r="U100">
         <v>200</v>
       </c>
-      <c r="X100" t="s">
+      <c r="Z100" t="s">
         <v>52</v>
       </c>
-      <c r="Y100" s="5" t="s">
+      <c r="AA100" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z100"/>
-      <c r="AA100"/>
-      <c r="AC100" s="5" t="s">
+      <c r="AB100"/>
+      <c r="AC100"/>
+      <c r="AE100" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AD100" s="5" t="s">
+      <c r="AF100" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AE100" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF100" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG100" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>60</v>
       </c>
@@ -7650,16 +7662,16 @@
       <c r="U101">
         <v>10</v>
       </c>
-      <c r="Z101"/>
-      <c r="AA101"/>
-      <c r="AE101" t="s">
+      <c r="AB101"/>
+      <c r="AC101"/>
+      <c r="AG101" t="s">
         <v>59</v>
       </c>
-      <c r="AF101" t="s">
+      <c r="AH101" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>71</v>
       </c>
@@ -7711,28 +7723,28 @@
       <c r="W102" t="s">
         <v>41</v>
       </c>
-      <c r="X102" t="s">
+      <c r="Z102" t="s">
         <v>43</v>
       </c>
-      <c r="Y102" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z102"/>
-      <c r="AA102"/>
-      <c r="AC102" s="5" t="s">
+      <c r="AA102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB102"/>
+      <c r="AC102"/>
+      <c r="AE102" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AD102" s="5" t="s">
+      <c r="AF102" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AE102" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF102" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="103" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>71</v>
       </c>
@@ -7784,16 +7796,16 @@
       <c r="W103" t="s">
         <v>41</v>
       </c>
-      <c r="Z103"/>
-      <c r="AA103"/>
-      <c r="AE103" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF103" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB103"/>
+      <c r="AC103"/>
+      <c r="AG103" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>71</v>
       </c>
@@ -7842,28 +7854,28 @@
       <c r="U104">
         <v>200</v>
       </c>
-      <c r="X104" t="s">
+      <c r="Z104" t="s">
         <v>77</v>
       </c>
-      <c r="Y104" s="5" t="s">
+      <c r="AA104" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="Z104"/>
-      <c r="AA104"/>
-      <c r="AC104" s="5" t="s">
+      <c r="AB104"/>
+      <c r="AC104"/>
+      <c r="AE104" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="AD104" s="5" t="s">
+      <c r="AF104" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="AE104" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG104" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>71</v>
       </c>
@@ -7912,16 +7924,16 @@
       <c r="U105">
         <v>10</v>
       </c>
-      <c r="Z105"/>
-      <c r="AA105"/>
-      <c r="AE105" t="s">
+      <c r="AB105"/>
+      <c r="AC105"/>
+      <c r="AG105" t="s">
         <v>59</v>
       </c>
-      <c r="AF105" t="s">
+      <c r="AH105" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>80</v>
       </c>
@@ -7973,26 +7985,26 @@
       <c r="W106" t="s">
         <v>41</v>
       </c>
-      <c r="X106" t="s">
+      <c r="Z106" t="s">
         <v>43</v>
       </c>
-      <c r="Y106" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC106" s="5" t="s">
+      <c r="AA106" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE106" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AD106" s="5" t="s">
+      <c r="AF106" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AE106" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF106" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="107" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG106" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>80</v>
       </c>
@@ -8044,23 +8056,23 @@
       <c r="W107" t="s">
         <v>41</v>
       </c>
-      <c r="X107" t="s">
+      <c r="Z107" t="s">
         <v>86</v>
       </c>
-      <c r="Y107" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z107"/>
-      <c r="AA107"/>
-      <c r="AC107" s="4"/>
-      <c r="AE107" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF107" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA107" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB107"/>
+      <c r="AC107"/>
+      <c r="AE107" s="4"/>
+      <c r="AG107" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>80</v>
       </c>
@@ -8109,28 +8121,28 @@
       <c r="U108">
         <v>200</v>
       </c>
-      <c r="X108" t="s">
+      <c r="Z108" t="s">
         <v>89</v>
       </c>
-      <c r="Y108" s="5" t="s">
+      <c r="AA108" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Z108" s="5" t="s">
+      <c r="AB108" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AA108" s="5" t="s">
+      <c r="AC108" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AC108" s="6"/>
-      <c r="AD108" s="5"/>
-      <c r="AE108" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF108" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="109" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AE108" s="6"/>
+      <c r="AF108" s="5"/>
+      <c r="AG108" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>80</v>
       </c>
@@ -8179,17 +8191,17 @@
       <c r="U109">
         <v>200</v>
       </c>
-      <c r="Z109"/>
-      <c r="AA109"/>
-      <c r="AC109" s="4"/>
-      <c r="AE109" t="s">
+      <c r="AB109"/>
+      <c r="AC109"/>
+      <c r="AE109" s="4"/>
+      <c r="AG109" t="s">
         <v>92</v>
       </c>
-      <c r="AF109" t="s">
+      <c r="AH109" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>80</v>
       </c>
@@ -8238,18 +8250,18 @@
       <c r="U110">
         <v>10</v>
       </c>
-      <c r="Z110"/>
-      <c r="AA110"/>
-      <c r="AC110" s="6"/>
-      <c r="AD110" s="5"/>
-      <c r="AE110" t="s">
+      <c r="AB110"/>
+      <c r="AC110"/>
+      <c r="AE110" s="6"/>
+      <c r="AF110" s="5"/>
+      <c r="AG110" t="s">
         <v>59</v>
       </c>
-      <c r="AF110" t="s">
+      <c r="AH110" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>95</v>
       </c>
@@ -8301,27 +8313,27 @@
       <c r="W111" t="s">
         <v>41</v>
       </c>
-      <c r="X111" t="s">
+      <c r="Z111" t="s">
         <v>43</v>
       </c>
-      <c r="Y111" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA111"/>
-      <c r="AC111" t="s">
+      <c r="AA111" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC111"/>
+      <c r="AE111" t="s">
         <v>83</v>
       </c>
-      <c r="AD111" t="s">
+      <c r="AF111" t="s">
         <v>84</v>
       </c>
-      <c r="AE111" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF111" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="112" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG111" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH111" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>95</v>
       </c>
@@ -8373,24 +8385,24 @@
       <c r="W112" t="s">
         <v>41</v>
       </c>
-      <c r="X112" t="s">
+      <c r="Z112" t="s">
         <v>86</v>
       </c>
-      <c r="Y112" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z112" s="6"/>
-      <c r="AA112" s="5"/>
-      <c r="AC112" s="6"/>
-      <c r="AD112" s="5"/>
-      <c r="AE112" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF112" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AA112" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB112" s="6"/>
+      <c r="AC112" s="5"/>
+      <c r="AE112" s="6"/>
+      <c r="AF112" s="5"/>
+      <c r="AG112" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>95</v>
       </c>
@@ -8439,26 +8451,26 @@
       <c r="U113">
         <v>200</v>
       </c>
-      <c r="X113" t="s">
+      <c r="Z113" t="s">
         <v>89</v>
       </c>
-      <c r="Y113" t="s">
+      <c r="AA113" t="s">
         <v>90</v>
       </c>
-      <c r="Z113" s="4" t="s">
+      <c r="AB113" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AA113" t="s">
+      <c r="AC113" t="s">
         <v>160</v>
       </c>
-      <c r="AE113" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF113" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG113" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH113" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>95</v>
       </c>
@@ -8507,15 +8519,15 @@
       <c r="U114">
         <v>200</v>
       </c>
-      <c r="AA114"/>
-      <c r="AE114" t="s">
+      <c r="AC114"/>
+      <c r="AG114" t="s">
         <v>92</v>
       </c>
-      <c r="AF114" t="s">
+      <c r="AH114" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>95</v>
       </c>
@@ -8564,14 +8576,14 @@
       <c r="U115">
         <v>10</v>
       </c>
-      <c r="AE115" t="s">
+      <c r="AG115" t="s">
         <v>59</v>
       </c>
-      <c r="AF115" t="s">
+      <c r="AH115" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>123</v>
       </c>
@@ -8623,28 +8635,28 @@
       <c r="W116" t="s">
         <v>41</v>
       </c>
-      <c r="X116" t="s">
+      <c r="Z116" t="s">
         <v>43</v>
       </c>
-      <c r="Y116" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z116"/>
-      <c r="AA116"/>
-      <c r="AC116" s="5" t="s">
+      <c r="AA116" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB116"/>
+      <c r="AC116"/>
+      <c r="AE116" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AD116" s="5" t="s">
+      <c r="AF116" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AE116" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF116" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="117" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="AG116" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH116" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>123</v>
       </c>
@@ -8696,23 +8708,23 @@
       <c r="W117" t="s">
         <v>41</v>
       </c>
-      <c r="X117" t="s">
+      <c r="Z117" t="s">
         <v>86</v>
       </c>
-      <c r="Y117" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z117"/>
-      <c r="AA117"/>
-      <c r="AC117" s="4"/>
-      <c r="AE117" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF117" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="AA117" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB117"/>
+      <c r="AC117"/>
+      <c r="AE117" s="4"/>
+      <c r="AG117" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH117" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>123</v>
       </c>
@@ -8761,26 +8773,26 @@
       <c r="U118">
         <v>200</v>
       </c>
-      <c r="X118" t="s">
+      <c r="Z118" t="s">
         <v>89</v>
       </c>
-      <c r="Y118" t="s">
+      <c r="AA118" t="s">
         <v>90</v>
       </c>
-      <c r="Z118" t="s">
+      <c r="AB118" t="s">
         <v>146</v>
       </c>
-      <c r="AA118" s="4" t="s">
+      <c r="AC118" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AE118" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF118" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="119" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="AG118" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH118" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>123</v>
       </c>
@@ -8829,16 +8841,16 @@
       <c r="U119">
         <v>10</v>
       </c>
-      <c r="Z119"/>
-      <c r="AA119"/>
-      <c r="AE119" t="s">
+      <c r="AB119"/>
+      <c r="AC119"/>
+      <c r="AG119" t="s">
         <v>59</v>
       </c>
-      <c r="AF119" t="s">
+      <c r="AH119" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>123</v>
       </c>
@@ -8890,24 +8902,24 @@
       <c r="W120" t="s">
         <v>41</v>
       </c>
-      <c r="X120" t="s">
+      <c r="Z120" t="s">
         <v>43</v>
       </c>
-      <c r="Y120" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA120"/>
-      <c r="AC120" t="s">
+      <c r="AA120" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC120"/>
+      <c r="AE120" t="s">
         <v>83</v>
       </c>
-      <c r="AE120" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF120" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="121" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="AG120" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH120" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>123</v>
       </c>
@@ -8959,22 +8971,22 @@
       <c r="W121" t="s">
         <v>41</v>
       </c>
-      <c r="X121" t="s">
+      <c r="Z121" t="s">
         <v>86</v>
       </c>
-      <c r="Y121" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA121"/>
-      <c r="AC121" s="4"/>
-      <c r="AE121" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF121" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="122" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="AA121" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC121"/>
+      <c r="AE121" s="4"/>
+      <c r="AG121" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH121" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>123</v>
       </c>
@@ -9023,26 +9035,26 @@
       <c r="U122">
         <v>200</v>
       </c>
-      <c r="X122" t="s">
+      <c r="Z122" t="s">
         <v>89</v>
       </c>
-      <c r="Y122" t="s">
+      <c r="AA122" t="s">
         <v>90</v>
       </c>
-      <c r="Z122" t="s">
+      <c r="AB122" t="s">
         <v>150</v>
       </c>
-      <c r="AA122" s="4" t="s">
+      <c r="AC122" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AE122" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF122" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="AG122" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH122" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>123</v>
       </c>
@@ -9091,16 +9103,16 @@
       <c r="U123">
         <v>10</v>
       </c>
-      <c r="Z123"/>
-      <c r="AA123"/>
-      <c r="AE123" t="s">
+      <c r="AB123"/>
+      <c r="AC123"/>
+      <c r="AG123" t="s">
         <v>59</v>
       </c>
-      <c r="AF123" t="s">
+      <c r="AH123" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>99</v>
       </c>
@@ -9152,27 +9164,27 @@
       <c r="W124" t="s">
         <v>41</v>
       </c>
-      <c r="X124" t="s">
+      <c r="Z124" t="s">
         <v>43</v>
       </c>
-      <c r="Y124" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA124"/>
-      <c r="AC124" t="s">
+      <c r="AA124" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC124"/>
+      <c r="AE124" t="s">
         <v>83</v>
       </c>
-      <c r="AD124" t="s">
+      <c r="AF124" t="s">
         <v>84</v>
       </c>
-      <c r="AE124" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF124" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="125" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG124" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH124" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>99</v>
       </c>
@@ -9224,22 +9236,22 @@
       <c r="W125" t="s">
         <v>41</v>
       </c>
-      <c r="X125" t="s">
+      <c r="Z125" t="s">
         <v>86</v>
       </c>
-      <c r="Y125" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA125"/>
-      <c r="AC125" s="4"/>
-      <c r="AE125" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF125" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="126" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AA125" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC125"/>
+      <c r="AE125" s="4"/>
+      <c r="AG125" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH125" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>99</v>
       </c>
@@ -9288,26 +9300,26 @@
       <c r="U126">
         <v>200</v>
       </c>
-      <c r="X126" t="s">
+      <c r="Z126" t="s">
         <v>89</v>
       </c>
-      <c r="Y126" t="s">
+      <c r="AA126" t="s">
         <v>90</v>
       </c>
-      <c r="Z126" s="4" t="s">
+      <c r="AB126" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AA126" t="s">
+      <c r="AC126" t="s">
         <v>101</v>
       </c>
-      <c r="AE126" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF126" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG126" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH126" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>99</v>
       </c>
@@ -9356,15 +9368,15 @@
       <c r="U127">
         <v>10</v>
       </c>
-      <c r="AA127"/>
-      <c r="AE127" t="s">
+      <c r="AC127"/>
+      <c r="AG127" t="s">
         <v>59</v>
       </c>
-      <c r="AF127" t="s">
+      <c r="AH127" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>107</v>
       </c>
@@ -9416,27 +9428,27 @@
       <c r="W128" t="s">
         <v>41</v>
       </c>
-      <c r="X128" t="s">
+      <c r="Z128" t="s">
         <v>43</v>
       </c>
-      <c r="Y128" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA128"/>
-      <c r="AC128" t="s">
+      <c r="AA128" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC128"/>
+      <c r="AE128" t="s">
         <v>83</v>
       </c>
-      <c r="AD128" t="s">
+      <c r="AF128" t="s">
         <v>84</v>
       </c>
-      <c r="AE128" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF128" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="129" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG128" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH128" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>107</v>
       </c>
@@ -9488,22 +9500,22 @@
       <c r="W129" t="s">
         <v>41</v>
       </c>
-      <c r="X129" t="s">
+      <c r="Z129" t="s">
         <v>86</v>
       </c>
-      <c r="Y129" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA129"/>
-      <c r="AC129" s="4"/>
-      <c r="AE129" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF129" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="130" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AA129" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC129"/>
+      <c r="AE129" s="4"/>
+      <c r="AG129" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>107</v>
       </c>
@@ -9552,26 +9564,26 @@
       <c r="U130">
         <v>200</v>
       </c>
-      <c r="X130" t="s">
+      <c r="Z130" t="s">
         <v>89</v>
       </c>
-      <c r="Y130" t="s">
+      <c r="AA130" t="s">
         <v>90</v>
       </c>
-      <c r="Z130" s="4" t="s">
+      <c r="AB130" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AA130" t="s">
+      <c r="AC130" t="s">
         <v>109</v>
       </c>
-      <c r="AE130" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF130" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG130" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH130" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="131" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>107</v>
       </c>
@@ -9620,15 +9632,15 @@
       <c r="U131">
         <v>10</v>
       </c>
-      <c r="AA131"/>
-      <c r="AE131" t="s">
+      <c r="AC131"/>
+      <c r="AG131" t="s">
         <v>59</v>
       </c>
-      <c r="AF131" t="s">
+      <c r="AH131" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>111</v>
       </c>
@@ -9680,27 +9692,27 @@
       <c r="W132" t="s">
         <v>41</v>
       </c>
-      <c r="X132" t="s">
+      <c r="Z132" t="s">
         <v>43</v>
       </c>
-      <c r="Y132" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA132"/>
-      <c r="AC132" t="s">
+      <c r="AA132" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC132"/>
+      <c r="AE132" t="s">
         <v>83</v>
       </c>
-      <c r="AD132" t="s">
+      <c r="AF132" t="s">
         <v>84</v>
       </c>
-      <c r="AE132" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF132" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="133" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG132" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH132" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>111</v>
       </c>
@@ -9752,22 +9764,22 @@
       <c r="W133" t="s">
         <v>41</v>
       </c>
-      <c r="X133" t="s">
+      <c r="Z133" t="s">
         <v>86</v>
       </c>
-      <c r="Y133" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA133"/>
-      <c r="AC133" s="4"/>
-      <c r="AE133" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF133" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="134" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA133" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC133"/>
+      <c r="AE133" s="4"/>
+      <c r="AG133" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH133" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>111</v>
       </c>
@@ -9816,26 +9828,26 @@
       <c r="U134">
         <v>200</v>
       </c>
-      <c r="X134" t="s">
+      <c r="Z134" t="s">
         <v>89</v>
       </c>
-      <c r="Y134" t="s">
+      <c r="AA134" t="s">
         <v>90</v>
       </c>
-      <c r="Z134" t="s">
+      <c r="AB134" t="s">
         <v>114</v>
       </c>
-      <c r="AA134" t="s">
+      <c r="AC134" t="s">
         <v>113</v>
       </c>
-      <c r="AE134" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF134" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="135" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG134" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH134" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>111</v>
       </c>
@@ -9884,15 +9896,15 @@
       <c r="U135">
         <v>10</v>
       </c>
-      <c r="AA135"/>
-      <c r="AE135" t="s">
+      <c r="AC135"/>
+      <c r="AG135" t="s">
         <v>59</v>
       </c>
-      <c r="AF135" t="s">
+      <c r="AH135" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>115</v>
       </c>
@@ -9944,27 +9956,27 @@
       <c r="W136" t="s">
         <v>41</v>
       </c>
-      <c r="X136" t="s">
+      <c r="Z136" t="s">
         <v>43</v>
       </c>
-      <c r="Y136" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA136"/>
-      <c r="AC136" t="s">
+      <c r="AA136" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC136"/>
+      <c r="AE136" t="s">
         <v>83</v>
       </c>
-      <c r="AD136" t="s">
+      <c r="AF136" t="s">
         <v>84</v>
       </c>
-      <c r="AE136" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF136" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="137" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG136" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH136" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>115</v>
       </c>
@@ -10016,22 +10028,22 @@
       <c r="W137" t="s">
         <v>41</v>
       </c>
-      <c r="X137" t="s">
+      <c r="Z137" t="s">
         <v>86</v>
       </c>
-      <c r="Y137" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA137"/>
-      <c r="AC137" s="4"/>
-      <c r="AE137" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF137" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="138" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA137" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC137"/>
+      <c r="AE137" s="4"/>
+      <c r="AG137" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH137" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>115</v>
       </c>
@@ -10080,26 +10092,26 @@
       <c r="U138">
         <v>200</v>
       </c>
-      <c r="X138" t="s">
+      <c r="Z138" t="s">
         <v>89</v>
       </c>
-      <c r="Y138" t="s">
+      <c r="AA138" t="s">
         <v>90</v>
       </c>
-      <c r="Z138" t="s">
+      <c r="AB138" t="s">
         <v>118</v>
       </c>
-      <c r="AA138" t="s">
+      <c r="AC138" t="s">
         <v>117</v>
       </c>
-      <c r="AE138" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF138" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="139" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG138" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH138" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>115</v>
       </c>
@@ -10148,15 +10160,15 @@
       <c r="U139">
         <v>10</v>
       </c>
-      <c r="AA139"/>
-      <c r="AE139" t="s">
+      <c r="AC139"/>
+      <c r="AG139" t="s">
         <v>59</v>
       </c>
-      <c r="AF139" t="s">
+      <c r="AH139" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>123</v>
       </c>
@@ -10208,27 +10220,27 @@
       <c r="W140" t="s">
         <v>41</v>
       </c>
-      <c r="X140" t="s">
+      <c r="Z140" t="s">
         <v>43</v>
       </c>
-      <c r="Y140" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA140"/>
-      <c r="AC140" t="s">
+      <c r="AA140" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC140"/>
+      <c r="AE140" t="s">
         <v>83</v>
       </c>
-      <c r="AD140" t="s">
+      <c r="AF140" t="s">
         <v>84</v>
       </c>
-      <c r="AE140" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF140" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="141" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG140" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH140" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>123</v>
       </c>
@@ -10280,22 +10292,22 @@
       <c r="W141" t="s">
         <v>41</v>
       </c>
-      <c r="X141" t="s">
+      <c r="Z141" t="s">
         <v>86</v>
       </c>
-      <c r="Y141" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA141"/>
-      <c r="AC141" s="4"/>
-      <c r="AE141" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF141" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="142" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AA141" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC141"/>
+      <c r="AE141" s="4"/>
+      <c r="AG141" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH141" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="142" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>123</v>
       </c>
@@ -10344,26 +10356,26 @@
       <c r="U142">
         <v>200</v>
       </c>
-      <c r="X142" t="s">
+      <c r="Z142" t="s">
         <v>89</v>
       </c>
-      <c r="Y142" t="s">
+      <c r="AA142" t="s">
         <v>90</v>
       </c>
-      <c r="Z142" t="s">
+      <c r="AB142" t="s">
         <v>153</v>
       </c>
-      <c r="AA142" t="s">
+      <c r="AC142" t="s">
         <v>152</v>
       </c>
-      <c r="AE142" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF142" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="143" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG142" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH142" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>123</v>
       </c>
@@ -10412,15 +10424,15 @@
       <c r="U143">
         <v>10</v>
       </c>
-      <c r="AA143"/>
-      <c r="AE143" t="s">
+      <c r="AC143"/>
+      <c r="AG143" t="s">
         <v>59</v>
       </c>
-      <c r="AF143" t="s">
+      <c r="AH143" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>119</v>
       </c>
@@ -10472,27 +10484,27 @@
       <c r="W144" t="s">
         <v>41</v>
       </c>
-      <c r="X144" t="s">
+      <c r="Z144" t="s">
         <v>43</v>
       </c>
-      <c r="Y144" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA144"/>
-      <c r="AC144" t="s">
+      <c r="AA144" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC144"/>
+      <c r="AE144" t="s">
         <v>83</v>
       </c>
-      <c r="AD144" t="s">
+      <c r="AF144" t="s">
         <v>84</v>
       </c>
-      <c r="AE144" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF144" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="145" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG144" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH144" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>119</v>
       </c>
@@ -10544,22 +10556,22 @@
       <c r="W145" t="s">
         <v>41</v>
       </c>
-      <c r="X145" t="s">
+      <c r="Z145" t="s">
         <v>86</v>
       </c>
-      <c r="Y145" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA145"/>
-      <c r="AC145" s="4"/>
-      <c r="AE145" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF145" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="146" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA145" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC145"/>
+      <c r="AE145" s="4"/>
+      <c r="AG145" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH145" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>119</v>
       </c>
@@ -10608,26 +10620,26 @@
       <c r="U146">
         <v>200</v>
       </c>
-      <c r="X146" t="s">
+      <c r="Z146" t="s">
         <v>89</v>
       </c>
-      <c r="Y146" t="s">
+      <c r="AA146" t="s">
         <v>90</v>
       </c>
-      <c r="Z146" t="s">
+      <c r="AB146" t="s">
         <v>122</v>
       </c>
-      <c r="AA146" t="s">
+      <c r="AC146" t="s">
         <v>121</v>
       </c>
-      <c r="AE146" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF146" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="147" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG146" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH146" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="147" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>119</v>
       </c>
@@ -10676,15 +10688,15 @@
       <c r="U147">
         <v>10</v>
       </c>
-      <c r="AA147"/>
-      <c r="AE147" t="s">
+      <c r="AC147"/>
+      <c r="AG147" t="s">
         <v>59</v>
       </c>
-      <c r="AF147" t="s">
+      <c r="AH147" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>123</v>
       </c>
@@ -10736,27 +10748,27 @@
       <c r="W148" t="s">
         <v>41</v>
       </c>
-      <c r="X148" t="s">
+      <c r="Z148" t="s">
         <v>43</v>
       </c>
-      <c r="Y148" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA148"/>
-      <c r="AC148" t="s">
+      <c r="AA148" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC148"/>
+      <c r="AE148" t="s">
         <v>83</v>
       </c>
-      <c r="AD148" t="s">
+      <c r="AF148" t="s">
         <v>84</v>
       </c>
-      <c r="AE148" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF148" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="149" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG148" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH148" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>123</v>
       </c>
@@ -10808,22 +10820,22 @@
       <c r="W149" t="s">
         <v>41</v>
       </c>
-      <c r="X149" t="s">
+      <c r="Z149" t="s">
         <v>86</v>
       </c>
-      <c r="Y149" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA149"/>
-      <c r="AC149" s="4"/>
-      <c r="AE149" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF149" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="150" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA149" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC149"/>
+      <c r="AE149" s="4"/>
+      <c r="AG149" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH149" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>123</v>
       </c>
@@ -10872,26 +10884,26 @@
       <c r="U150">
         <v>200</v>
       </c>
-      <c r="X150" t="s">
+      <c r="Z150" t="s">
         <v>89</v>
       </c>
-      <c r="Y150" t="s">
+      <c r="AA150" t="s">
         <v>90</v>
       </c>
-      <c r="Z150" t="s">
+      <c r="AB150" t="s">
         <v>126</v>
       </c>
-      <c r="AA150" t="s">
+      <c r="AC150" t="s">
         <v>125</v>
       </c>
-      <c r="AE150" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF150" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="151" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG150" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH150" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>123</v>
       </c>
@@ -10940,15 +10952,15 @@
       <c r="U151">
         <v>10</v>
       </c>
-      <c r="AA151"/>
-      <c r="AE151" t="s">
+      <c r="AC151"/>
+      <c r="AG151" t="s">
         <v>59</v>
       </c>
-      <c r="AF151" t="s">
+      <c r="AH151" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>71</v>
       </c>
@@ -11000,28 +11012,28 @@
       <c r="W152" t="s">
         <v>41</v>
       </c>
-      <c r="X152" t="s">
+      <c r="Z152" t="s">
         <v>43</v>
       </c>
-      <c r="Y152" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z152"/>
-      <c r="AA152"/>
-      <c r="AC152" t="s">
+      <c r="AA152" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB152"/>
+      <c r="AC152"/>
+      <c r="AE152" t="s">
         <v>74</v>
       </c>
-      <c r="AD152" t="s">
+      <c r="AF152" t="s">
         <v>75</v>
       </c>
-      <c r="AE152" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF152" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="153" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG152" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH152" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>71</v>
       </c>
@@ -11073,16 +11085,16 @@
       <c r="W153" t="s">
         <v>41</v>
       </c>
-      <c r="Z153"/>
-      <c r="AA153"/>
-      <c r="AE153" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF153" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="154" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AB153"/>
+      <c r="AC153"/>
+      <c r="AG153" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH153" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>71</v>
       </c>
@@ -11131,28 +11143,28 @@
       <c r="U154">
         <v>200</v>
       </c>
-      <c r="X154" t="s">
+      <c r="Z154" t="s">
         <v>77</v>
       </c>
-      <c r="Y154" t="s">
+      <c r="AA154" t="s">
         <v>78</v>
       </c>
-      <c r="Z154"/>
-      <c r="AA154"/>
-      <c r="AC154" t="s">
+      <c r="AB154"/>
+      <c r="AC154"/>
+      <c r="AE154" t="s">
         <v>76</v>
       </c>
-      <c r="AD154" t="s">
+      <c r="AF154" t="s">
         <v>71</v>
       </c>
-      <c r="AE154" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF154" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="155" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG154" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH154" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>71</v>
       </c>
@@ -11201,18 +11213,18 @@
       <c r="U155">
         <v>10</v>
       </c>
-      <c r="Z155"/>
-      <c r="AA155"/>
-      <c r="AE155" t="s">
+      <c r="AB155"/>
+      <c r="AC155"/>
+      <c r="AG155" t="s">
         <v>59</v>
       </c>
-      <c r="AF155" t="s">
+      <c r="AH155" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH155" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH155">
+  <autoFilter ref="A1:AJ155" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ155">
     <sortCondition ref="J2:J155"/>
     <sortCondition ref="C2:C155"/>
     <sortCondition ref="R2:R155"/>

--- a/curation/draft/collection/collection_specialization_DS.xlsx
+++ b/curation/draft/collection/collection_specialization_DS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76257EDC-851E-7941-B20A-C892AF173423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128700E8-CF30-6442-97DC-F1F78F2F1E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="1080" windowWidth="29900" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="780" windowWidth="29900" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_DS" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="195">
   <si>
     <t>package_date</t>
   </si>
@@ -524,6 +524,90 @@
   </si>
   <si>
     <t>derivation_description</t>
+  </si>
+  <si>
+    <t>ADVEVENT_EOT</t>
+  </si>
+  <si>
+    <t>ADVEVENT_EOS</t>
+  </si>
+  <si>
+    <t>ADVEVENT_CONT</t>
+  </si>
+  <si>
+    <t>DEAD_EOS</t>
+  </si>
+  <si>
+    <t>DEAD_EOT</t>
+  </si>
+  <si>
+    <t>DEAD_CONT</t>
+  </si>
+  <si>
+    <t>LACKEFFICACY_EOS</t>
+  </si>
+  <si>
+    <t>LACKEFFICACY_EOT</t>
+  </si>
+  <si>
+    <t>LACKEFFICACY_CONT</t>
+  </si>
+  <si>
+    <t>PHYDECISION_EOS</t>
+  </si>
+  <si>
+    <t>PHYDECISION_EOT</t>
+  </si>
+  <si>
+    <t>PHYDECISION_CONT</t>
+  </si>
+  <si>
+    <t>PROGDISEASE_EOS</t>
+  </si>
+  <si>
+    <t>PROGDISEASE_EOT</t>
+  </si>
+  <si>
+    <t>PROGDISEASE_CONT</t>
+  </si>
+  <si>
+    <t>PROTCOMP_EOS</t>
+  </si>
+  <si>
+    <t>PROTCOMP_EOT</t>
+  </si>
+  <si>
+    <t>PROTCOMP_CONT</t>
+  </si>
+  <si>
+    <t>PROTDEV_EOS</t>
+  </si>
+  <si>
+    <t>PROTDEV_EOT</t>
+  </si>
+  <si>
+    <t>PROTDEV_CONT</t>
+  </si>
+  <si>
+    <t>SUBJPREG_EOS</t>
+  </si>
+  <si>
+    <t>SUBJPREG_EOT</t>
+  </si>
+  <si>
+    <t>SUBJPREG_CONT</t>
+  </si>
+  <si>
+    <t>SUBJWITHDRAW_EOS</t>
+  </si>
+  <si>
+    <t>SUBJWITHDRAW_EOT</t>
+  </si>
+  <si>
+    <t>SUBJWITHDRAW_CONT</t>
+  </si>
+  <si>
+    <t>LTFUP_EOS</t>
   </si>
 </sst>
 </file>
@@ -929,10 +1013,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="X104" sqref="X104"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1611,7 +1695,7 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
         <v>127</v>
@@ -1682,7 +1766,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="J11" t="s">
         <v>127</v>
@@ -1752,7 +1836,7 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="J12" t="s">
         <v>127</v>
@@ -1821,7 +1905,7 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="J13" t="s">
         <v>127</v>
@@ -1880,7 +1964,7 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="J14" t="s">
         <v>127</v>
@@ -1939,7 +2023,7 @@
         <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="J15" t="s">
         <v>127</v>
@@ -2011,7 +2095,7 @@
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
         <v>127</v>
@@ -2080,7 +2164,7 @@
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
         <v>127</v>
@@ -2148,7 +2232,7 @@
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
         <v>127</v>
@@ -2205,7 +2289,7 @@
         <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
         <v>127</v>
@@ -2261,7 +2345,7 @@
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
         <v>127</v>
@@ -2333,7 +2417,7 @@
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="J21" t="s">
         <v>127</v>
@@ -2402,7 +2486,7 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
         <v>127</v>
@@ -2470,7 +2554,7 @@
         <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="J23" t="s">
         <v>127</v>
@@ -2527,7 +2611,7 @@
         <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="J24" t="s">
         <v>127</v>
@@ -2599,7 +2683,7 @@
         <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="J25" t="s">
         <v>127</v>
@@ -2668,7 +2752,7 @@
         <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
         <v>127</v>
@@ -2736,7 +2820,7 @@
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="J27" t="s">
         <v>127</v>
@@ -2793,7 +2877,7 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="J28" t="s">
         <v>127</v>
@@ -2865,7 +2949,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="J29" t="s">
         <v>127</v>
@@ -2934,7 +3018,7 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="J30" t="s">
         <v>127</v>
@@ -3002,7 +3086,7 @@
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="J31" t="s">
         <v>127</v>
@@ -3059,7 +3143,7 @@
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="J32" t="s">
         <v>127</v>
@@ -3131,7 +3215,7 @@
         <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="J33" t="s">
         <v>127</v>
@@ -3200,7 +3284,7 @@
         <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="J34" t="s">
         <v>127</v>
@@ -3268,7 +3352,7 @@
         <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="J35" t="s">
         <v>127</v>
@@ -3325,7 +3409,7 @@
         <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="J36" t="s">
         <v>127</v>
@@ -3397,7 +3481,7 @@
         <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="J37" t="s">
         <v>127</v>
@@ -3466,7 +3550,7 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="J38" t="s">
         <v>127</v>
@@ -3534,7 +3618,7 @@
         <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="J39" t="s">
         <v>127</v>
@@ -3591,7 +3675,7 @@
         <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="J40" t="s">
         <v>127</v>
@@ -3663,7 +3747,7 @@
         <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="J41" t="s">
         <v>127</v>
@@ -3732,7 +3816,7 @@
         <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="J42" t="s">
         <v>127</v>
@@ -3800,7 +3884,7 @@
         <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="J43" t="s">
         <v>127</v>
@@ -3857,7 +3941,7 @@
         <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="J44" t="s">
         <v>127</v>
@@ -3929,7 +4013,7 @@
         <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="J45" t="s">
         <v>127</v>
@@ -3998,7 +4082,7 @@
         <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="J46" t="s">
         <v>127</v>
@@ -4066,7 +4150,7 @@
         <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="J47" t="s">
         <v>127</v>
@@ -4123,7 +4207,7 @@
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="J48" t="s">
         <v>127</v>
@@ -4195,7 +4279,7 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="J49" t="s">
         <v>127</v>
@@ -4264,7 +4348,7 @@
         <v>37</v>
       </c>
       <c r="H50" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="J50" t="s">
         <v>127</v>
@@ -4332,7 +4416,7 @@
         <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="J51" t="s">
         <v>127</v>
@@ -4389,7 +4473,7 @@
         <v>37</v>
       </c>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="J52" t="s">
         <v>131</v>
@@ -4460,7 +4544,7 @@
         <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="J53" t="s">
         <v>131</v>
@@ -4528,7 +4612,7 @@
         <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="J54" t="s">
         <v>131</v>
@@ -4599,7 +4683,7 @@
         <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="J55" t="s">
         <v>131</v>
@@ -4655,7 +4739,7 @@
         <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="J56" t="s">
         <v>131</v>
@@ -4711,7 +4795,7 @@
         <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="J57" t="s">
         <v>131</v>
@@ -4783,7 +4867,7 @@
         <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="J58" t="s">
         <v>131</v>
@@ -4852,7 +4936,7 @@
         <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="J59" t="s">
         <v>131</v>
@@ -4920,7 +5004,7 @@
         <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="J60" t="s">
         <v>131</v>
@@ -4977,7 +5061,7 @@
         <v>37</v>
       </c>
       <c r="H61" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="J61" t="s">
         <v>131</v>
@@ -5034,7 +5118,7 @@
         <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="J62" t="s">
         <v>131</v>
@@ -5106,7 +5190,7 @@
         <v>37</v>
       </c>
       <c r="H63" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="J63" t="s">
         <v>131</v>
@@ -5175,7 +5259,7 @@
         <v>37</v>
       </c>
       <c r="H64" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="J64" t="s">
         <v>131</v>
@@ -5243,7 +5327,7 @@
         <v>37</v>
       </c>
       <c r="H65" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="J65" t="s">
         <v>131</v>
@@ -5300,7 +5384,7 @@
         <v>37</v>
       </c>
       <c r="H66" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="J66" t="s">
         <v>131</v>
@@ -5372,7 +5456,7 @@
         <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="J67" t="s">
         <v>131</v>
@@ -5441,7 +5525,7 @@
         <v>37</v>
       </c>
       <c r="H68" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="J68" t="s">
         <v>131</v>
@@ -5509,7 +5593,7 @@
         <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="J69" t="s">
         <v>131</v>
@@ -5566,7 +5650,7 @@
         <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="J70" t="s">
         <v>131</v>
@@ -5638,7 +5722,7 @@
         <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="J71" t="s">
         <v>131</v>
@@ -5707,7 +5791,7 @@
         <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="J72" t="s">
         <v>131</v>
@@ -5775,7 +5859,7 @@
         <v>37</v>
       </c>
       <c r="H73" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="J73" t="s">
         <v>131</v>
@@ -5832,7 +5916,7 @@
         <v>37</v>
       </c>
       <c r="H74" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="J74" t="s">
         <v>131</v>
@@ -5904,7 +5988,7 @@
         <v>37</v>
       </c>
       <c r="H75" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="J75" t="s">
         <v>131</v>
@@ -5973,7 +6057,7 @@
         <v>37</v>
       </c>
       <c r="H76" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="J76" t="s">
         <v>131</v>
@@ -6041,7 +6125,7 @@
         <v>37</v>
       </c>
       <c r="H77" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="J77" t="s">
         <v>131</v>
@@ -6098,7 +6182,7 @@
         <v>37</v>
       </c>
       <c r="H78" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="J78" t="s">
         <v>131</v>
@@ -6170,7 +6254,7 @@
         <v>37</v>
       </c>
       <c r="H79" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="J79" t="s">
         <v>131</v>
@@ -6239,7 +6323,7 @@
         <v>37</v>
       </c>
       <c r="H80" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="J80" t="s">
         <v>131</v>
@@ -6307,7 +6391,7 @@
         <v>37</v>
       </c>
       <c r="H81" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="J81" t="s">
         <v>131</v>
@@ -6364,7 +6448,7 @@
         <v>37</v>
       </c>
       <c r="H82" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="J82" t="s">
         <v>131</v>
@@ -6436,7 +6520,7 @@
         <v>37</v>
       </c>
       <c r="H83" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="J83" t="s">
         <v>131</v>
@@ -6505,7 +6589,7 @@
         <v>37</v>
       </c>
       <c r="H84" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="J84" t="s">
         <v>131</v>
@@ -6573,7 +6657,7 @@
         <v>37</v>
       </c>
       <c r="H85" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="J85" t="s">
         <v>131</v>
@@ -6630,7 +6714,7 @@
         <v>37</v>
       </c>
       <c r="H86" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="J86" t="s">
         <v>131</v>
@@ -6702,7 +6786,7 @@
         <v>37</v>
       </c>
       <c r="H87" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="J87" t="s">
         <v>131</v>
@@ -6771,7 +6855,7 @@
         <v>37</v>
       </c>
       <c r="H88" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="J88" t="s">
         <v>131</v>
@@ -6839,7 +6923,7 @@
         <v>37</v>
       </c>
       <c r="H89" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="J89" t="s">
         <v>131</v>
@@ -7950,7 +8034,7 @@
         <v>37</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="J106" t="s">
         <v>145</v>
@@ -8021,7 +8105,7 @@
         <v>37</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="J107" t="s">
         <v>145</v>
@@ -8089,7 +8173,7 @@
         <v>37</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="J108" t="s">
         <v>145</v>
@@ -8159,7 +8243,7 @@
         <v>37</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="J109" t="s">
         <v>145</v>
@@ -8218,7 +8302,7 @@
         <v>37</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="J110" t="s">
         <v>145</v>
@@ -8278,7 +8362,7 @@
         <v>37</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="J111" t="s">
         <v>145</v>
@@ -8350,7 +8434,7 @@
         <v>37</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="J112" t="s">
         <v>145</v>
@@ -8419,7 +8503,7 @@
         <v>37</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="J113" t="s">
         <v>145</v>
@@ -8487,7 +8571,7 @@
         <v>37</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="J114" t="s">
         <v>145</v>
@@ -8544,7 +8628,7 @@
         <v>37</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="J115" t="s">
         <v>145</v>
@@ -9129,7 +9213,7 @@
         <v>37</v>
       </c>
       <c r="H124" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J124" t="s">
         <v>145</v>
@@ -9201,7 +9285,7 @@
         <v>37</v>
       </c>
       <c r="H125" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J125" t="s">
         <v>145</v>
@@ -9268,7 +9352,7 @@
         <v>37</v>
       </c>
       <c r="H126" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J126" t="s">
         <v>145</v>
@@ -9336,7 +9420,7 @@
         <v>37</v>
       </c>
       <c r="H127" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J127" t="s">
         <v>145</v>
@@ -9393,7 +9477,7 @@
         <v>37</v>
       </c>
       <c r="H128" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="J128" t="s">
         <v>145</v>
@@ -9465,7 +9549,7 @@
         <v>37</v>
       </c>
       <c r="H129" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="J129" t="s">
         <v>145</v>
@@ -9532,7 +9616,7 @@
         <v>37</v>
       </c>
       <c r="H130" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="J130" t="s">
         <v>145</v>
@@ -9600,7 +9684,7 @@
         <v>37</v>
       </c>
       <c r="H131" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="J131" t="s">
         <v>145</v>
@@ -9657,7 +9741,7 @@
         <v>37</v>
       </c>
       <c r="H132" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="J132" t="s">
         <v>145</v>
@@ -9729,7 +9813,7 @@
         <v>37</v>
       </c>
       <c r="H133" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="J133" t="s">
         <v>145</v>
@@ -9796,7 +9880,7 @@
         <v>37</v>
       </c>
       <c r="H134" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="J134" t="s">
         <v>145</v>
@@ -9864,7 +9948,7 @@
         <v>37</v>
       </c>
       <c r="H135" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="J135" t="s">
         <v>145</v>
@@ -9921,7 +10005,7 @@
         <v>37</v>
       </c>
       <c r="H136" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="J136" t="s">
         <v>145</v>
@@ -9993,7 +10077,7 @@
         <v>37</v>
       </c>
       <c r="H137" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="J137" t="s">
         <v>145</v>
@@ -10060,7 +10144,7 @@
         <v>37</v>
       </c>
       <c r="H138" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="J138" t="s">
         <v>145</v>
@@ -10128,7 +10212,7 @@
         <v>37</v>
       </c>
       <c r="H139" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="J139" t="s">
         <v>145</v>
@@ -10185,7 +10269,7 @@
         <v>37</v>
       </c>
       <c r="H140" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="J140" t="s">
         <v>145</v>
@@ -10257,7 +10341,7 @@
         <v>37</v>
       </c>
       <c r="H141" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="J141" t="s">
         <v>145</v>
@@ -10324,7 +10408,7 @@
         <v>37</v>
       </c>
       <c r="H142" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="J142" t="s">
         <v>145</v>
@@ -10392,7 +10476,7 @@
         <v>37</v>
       </c>
       <c r="H143" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="J143" t="s">
         <v>145</v>
@@ -10449,7 +10533,7 @@
         <v>37</v>
       </c>
       <c r="H144" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="J144" t="s">
         <v>145</v>
@@ -10521,7 +10605,7 @@
         <v>37</v>
       </c>
       <c r="H145" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="J145" t="s">
         <v>145</v>
@@ -10588,7 +10672,7 @@
         <v>37</v>
       </c>
       <c r="H146" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="J146" t="s">
         <v>145</v>
@@ -10656,7 +10740,7 @@
         <v>37</v>
       </c>
       <c r="H147" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="J147" t="s">
         <v>145</v>
@@ -10713,7 +10797,7 @@
         <v>37</v>
       </c>
       <c r="H148" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="J148" t="s">
         <v>145</v>
@@ -10785,7 +10869,7 @@
         <v>37</v>
       </c>
       <c r="H149" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="J149" t="s">
         <v>145</v>
@@ -10852,7 +10936,7 @@
         <v>37</v>
       </c>
       <c r="H150" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="J150" t="s">
         <v>145</v>
@@ -10920,7 +11004,7 @@
         <v>37</v>
       </c>
       <c r="H151" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="J151" t="s">
         <v>145</v>

--- a/curation/draft/collection/collection_specialization_DS.xlsx
+++ b/curation/draft/collection/collection_specialization_DS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128700E8-CF30-6442-97DC-F1F78F2F1E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B357049-D489-4433-8AED-37DCE9FF9073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="780" windowWidth="29900" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_DS" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="196">
   <si>
     <t>package_date</t>
   </si>
@@ -409,9 +409,6 @@
     <t>End of Study</t>
   </si>
   <si>
-    <t>Date patient and caregiver signed the consent document </t>
-  </si>
-  <si>
     <t>What was the date the eligibility criteria assessment was performed?</t>
   </si>
   <si>
@@ -608,6 +605,12 @@
   </si>
   <si>
     <t>LTFUP_EOS</t>
+  </si>
+  <si>
+    <t>Date patient and caregiver signed the consent document</t>
+  </si>
+  <si>
+    <t>CONSENT_360</t>
   </si>
 </sst>
 </file>
@@ -1014,30 +1017,30 @@
   <dimension ref="A1:AJ155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="10" max="11" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="30.28515625" customWidth="1"/>
     <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="46.1640625" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="27" max="27" width="20.5" customWidth="1"/>
-    <col min="28" max="28" width="42.1640625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="22.33203125" style="4" customWidth="1"/>
-    <col min="30" max="30" width="13.83203125" customWidth="1"/>
-    <col min="31" max="31" width="36.5" customWidth="1"/>
-    <col min="32" max="32" width="17.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="46.140625" customWidth="1"/>
+    <col min="17" max="17" width="31.140625" customWidth="1"/>
+    <col min="27" max="27" width="20.42578125" customWidth="1"/>
+    <col min="28" max="28" width="42.140625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="22.28515625" style="4" customWidth="1"/>
+    <col min="30" max="30" width="13.85546875" customWidth="1"/>
+    <col min="31" max="31" width="36.42578125" customWidth="1"/>
+    <col min="32" max="32" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -1108,10 +1111,10 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>22</v>
@@ -1147,12 +1150,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -1164,13 +1167,13 @@
         <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M2" t="s">
         <v>39</v>
@@ -1220,12 +1223,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -1237,13 +1240,13 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M3" t="s">
         <v>46</v>
@@ -1288,12 +1291,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -1305,13 +1308,13 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M4" t="s">
         <v>49</v>
@@ -1346,11 +1349,11 @@
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AE4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF4" t="s">
         <v>143</v>
       </c>
-      <c r="AF4" t="s">
-        <v>144</v>
-      </c>
       <c r="AG4" t="s">
         <v>49</v>
       </c>
@@ -1358,12 +1361,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -1375,13 +1378,13 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M5" t="s">
         <v>55</v>
@@ -1393,7 +1396,7 @@
         <v>56</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -1416,7 +1419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>66</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>56</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R9">
         <v>4</v>
@@ -1678,7 +1681,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>80</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J10" t="s">
         <v>127</v>
@@ -1749,7 +1752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>80</v>
       </c>
@@ -1766,7 +1769,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J11" t="s">
         <v>127</v>
@@ -1819,7 +1822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J12" t="s">
         <v>127</v>
@@ -1888,7 +1891,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>80</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J13" t="s">
         <v>127</v>
@@ -1947,7 +1950,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>80</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
         <v>127</v>
@@ -1982,7 +1985,7 @@
         <v>56</v>
       </c>
       <c r="P14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R14">
         <v>5</v>
@@ -2006,7 +2009,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>95</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
         <v>127</v>
@@ -2078,7 +2081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>95</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
         <v>127</v>
@@ -2147,7 +2150,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>95</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
         <v>127</v>
@@ -2206,7 +2209,7 @@
         <v>98</v>
       </c>
       <c r="AC17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG17" t="s">
         <v>49</v>
@@ -2215,7 +2218,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>95</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
         <v>127</v>
@@ -2250,7 +2253,7 @@
         <v>93</v>
       </c>
       <c r="Q18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R18">
         <v>4</v>
@@ -2272,7 +2275,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>95</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
         <v>127</v>
@@ -2307,7 +2310,7 @@
         <v>56</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R19">
         <v>5</v>
@@ -2328,7 +2331,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
         <v>127</v>
@@ -2400,7 +2403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>99</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
         <v>127</v>
@@ -2469,7 +2472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>99</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J22" t="s">
         <v>127</v>
@@ -2537,7 +2540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>99</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J23" t="s">
         <v>127</v>
@@ -2572,7 +2575,7 @@
         <v>56</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R23">
         <v>4</v>
@@ -2594,7 +2597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>103</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J24" t="s">
         <v>127</v>
@@ -2666,7 +2669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>103</v>
       </c>
@@ -2683,7 +2686,7 @@
         <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J25" t="s">
         <v>127</v>
@@ -2735,7 +2738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>103</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
         <v>127</v>
@@ -2803,7 +2806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>103</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J27" t="s">
         <v>127</v>
@@ -2838,7 +2841,7 @@
         <v>56</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R27">
         <v>4</v>
@@ -2860,7 +2863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>107</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J28" t="s">
         <v>127</v>
@@ -2932,7 +2935,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>107</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J29" t="s">
         <v>127</v>
@@ -3001,7 +3004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>107</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J30" t="s">
         <v>127</v>
@@ -3057,7 +3060,7 @@
         <v>90</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC30" t="s">
         <v>109</v>
@@ -3069,7 +3072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>107</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J31" t="s">
         <v>127</v>
@@ -3104,7 +3107,7 @@
         <v>56</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R31">
         <v>4</v>
@@ -3126,7 +3129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>111</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J32" t="s">
         <v>127</v>
@@ -3198,7 +3201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>111</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J33" t="s">
         <v>127</v>
@@ -3267,7 +3270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>111</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J34" t="s">
         <v>127</v>
@@ -3335,7 +3338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>111</v>
       </c>
@@ -3352,7 +3355,7 @@
         <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J35" t="s">
         <v>127</v>
@@ -3370,7 +3373,7 @@
         <v>56</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R35">
         <v>4</v>
@@ -3392,7 +3395,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>115</v>
       </c>
@@ -3409,7 +3412,7 @@
         <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J36" t="s">
         <v>127</v>
@@ -3464,7 +3467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>115</v>
       </c>
@@ -3481,7 +3484,7 @@
         <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J37" t="s">
         <v>127</v>
@@ -3533,7 +3536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>115</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J38" t="s">
         <v>127</v>
@@ -3601,7 +3604,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>115</v>
       </c>
@@ -3618,7 +3621,7 @@
         <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J39" t="s">
         <v>127</v>
@@ -3636,7 +3639,7 @@
         <v>56</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R39">
         <v>4</v>
@@ -3658,12 +3661,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
         <v>35</v>
@@ -3675,13 +3678,13 @@
         <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J40" t="s">
         <v>127</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M40" t="s">
         <v>39</v>
@@ -3730,12 +3733,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
         <v>35</v>
@@ -3747,13 +3750,13 @@
         <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J41" t="s">
         <v>127</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M41" t="s">
         <v>46</v>
@@ -3799,12 +3802,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
@@ -3816,13 +3819,13 @@
         <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J42" t="s">
         <v>127</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M42" t="s">
         <v>49</v>
@@ -3855,10 +3858,10 @@
         <v>90</v>
       </c>
       <c r="AB42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG42" t="s">
         <v>49</v>
@@ -3867,12 +3870,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
         <v>35</v>
@@ -3884,13 +3887,13 @@
         <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J43" t="s">
         <v>127</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M43" t="s">
         <v>55</v>
@@ -3902,7 +3905,7 @@
         <v>56</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R43">
         <v>4</v>
@@ -3924,7 +3927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>119</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J44" t="s">
         <v>127</v>
@@ -3996,7 +3999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>119</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J45" t="s">
         <v>127</v>
@@ -4065,7 +4068,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>119</v>
       </c>
@@ -4082,7 +4085,7 @@
         <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J46" t="s">
         <v>127</v>
@@ -4133,7 +4136,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>119</v>
       </c>
@@ -4150,7 +4153,7 @@
         <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J47" t="s">
         <v>127</v>
@@ -4168,7 +4171,7 @@
         <v>56</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R47">
         <v>4</v>
@@ -4190,7 +4193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>123</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J48" t="s">
         <v>127</v>
@@ -4262,7 +4265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>123</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J49" t="s">
         <v>127</v>
@@ -4331,7 +4334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>123</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>37</v>
       </c>
       <c r="H50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J50" t="s">
         <v>127</v>
@@ -4399,7 +4402,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>123</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J51" t="s">
         <v>127</v>
@@ -4434,7 +4437,7 @@
         <v>56</v>
       </c>
       <c r="P51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R51">
         <v>4</v>
@@ -4456,7 +4459,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>80</v>
       </c>
@@ -4473,10 +4476,10 @@
         <v>37</v>
       </c>
       <c r="H52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L52" t="s">
         <v>82</v>
@@ -4527,7 +4530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>80</v>
       </c>
@@ -4544,10 +4547,10 @@
         <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s">
         <v>82</v>
@@ -4586,7 +4589,7 @@
         <v>46</v>
       </c>
       <c r="AE53" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG53" t="s">
         <v>46</v>
@@ -4595,7 +4598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>80</v>
       </c>
@@ -4612,10 +4615,10 @@
         <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L54" t="s">
         <v>82</v>
@@ -4630,7 +4633,7 @@
         <v>50</v>
       </c>
       <c r="P54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R54">
         <v>3</v>
@@ -4666,7 +4669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>80</v>
       </c>
@@ -4683,10 +4686,10 @@
         <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L55" t="s">
         <v>82</v>
@@ -4722,7 +4725,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>80</v>
       </c>
@@ -4739,10 +4742,10 @@
         <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s">
         <v>82</v>
@@ -4757,7 +4760,7 @@
         <v>56</v>
       </c>
       <c r="P56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R56">
         <v>5</v>
@@ -4778,7 +4781,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>95</v>
       </c>
@@ -4795,10 +4798,10 @@
         <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s">
         <v>97</v>
@@ -4850,7 +4853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>95</v>
       </c>
@@ -4867,10 +4870,10 @@
         <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L58" t="s">
         <v>97</v>
@@ -4910,7 +4913,7 @@
       </c>
       <c r="AC58"/>
       <c r="AE58" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG58" t="s">
         <v>46</v>
@@ -4919,7 +4922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>95</v>
       </c>
@@ -4936,10 +4939,10 @@
         <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s">
         <v>97</v>
@@ -4954,7 +4957,7 @@
         <v>50</v>
       </c>
       <c r="P59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R59">
         <v>3</v>
@@ -4978,7 +4981,7 @@
         <v>98</v>
       </c>
       <c r="AC59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG59" t="s">
         <v>49</v>
@@ -4987,7 +4990,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>95</v>
       </c>
@@ -5004,10 +5007,10 @@
         <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s">
         <v>97</v>
@@ -5022,7 +5025,7 @@
         <v>93</v>
       </c>
       <c r="Q60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R60">
         <v>4</v>
@@ -5044,7 +5047,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>95</v>
       </c>
@@ -5061,10 +5064,10 @@
         <v>37</v>
       </c>
       <c r="H61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L61" t="s">
         <v>97</v>
@@ -5079,7 +5082,7 @@
         <v>56</v>
       </c>
       <c r="P61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R61">
         <v>5</v>
@@ -5101,7 +5104,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>99</v>
       </c>
@@ -5118,10 +5121,10 @@
         <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L62" t="s">
         <v>101</v>
@@ -5173,7 +5176,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>99</v>
       </c>
@@ -5190,10 +5193,10 @@
         <v>37</v>
       </c>
       <c r="H63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L63" t="s">
         <v>101</v>
@@ -5233,7 +5236,7 @@
       </c>
       <c r="AC63"/>
       <c r="AE63" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG63" t="s">
         <v>46</v>
@@ -5242,7 +5245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>99</v>
       </c>
@@ -5259,10 +5262,10 @@
         <v>37</v>
       </c>
       <c r="H64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L64" t="s">
         <v>101</v>
@@ -5277,7 +5280,7 @@
         <v>50</v>
       </c>
       <c r="P64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R64">
         <v>3</v>
@@ -5310,7 +5313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>99</v>
       </c>
@@ -5327,10 +5330,10 @@
         <v>37</v>
       </c>
       <c r="H65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s">
         <v>101</v>
@@ -5345,7 +5348,7 @@
         <v>56</v>
       </c>
       <c r="P65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R65">
         <v>4</v>
@@ -5367,7 +5370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>107</v>
       </c>
@@ -5384,10 +5387,10 @@
         <v>37</v>
       </c>
       <c r="H66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L66" t="s">
         <v>109</v>
@@ -5439,7 +5442,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>107</v>
       </c>
@@ -5456,10 +5459,10 @@
         <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s">
         <v>109</v>
@@ -5499,7 +5502,7 @@
       </c>
       <c r="AC67"/>
       <c r="AE67" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG67" t="s">
         <v>46</v>
@@ -5508,7 +5511,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>107</v>
       </c>
@@ -5525,10 +5528,10 @@
         <v>37</v>
       </c>
       <c r="H68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L68" t="s">
         <v>109</v>
@@ -5543,7 +5546,7 @@
         <v>50</v>
       </c>
       <c r="P68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R68">
         <v>3</v>
@@ -5576,7 +5579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>107</v>
       </c>
@@ -5593,10 +5596,10 @@
         <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s">
         <v>109</v>
@@ -5611,7 +5614,7 @@
         <v>56</v>
       </c>
       <c r="P69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R69">
         <v>4</v>
@@ -5633,7 +5636,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>111</v>
       </c>
@@ -5650,10 +5653,10 @@
         <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L70" t="s">
         <v>113</v>
@@ -5705,7 +5708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>111</v>
       </c>
@@ -5722,10 +5725,10 @@
         <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L71" t="s">
         <v>113</v>
@@ -5765,7 +5768,7 @@
       </c>
       <c r="AC71"/>
       <c r="AE71" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG71" t="s">
         <v>46</v>
@@ -5774,7 +5777,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>111</v>
       </c>
@@ -5791,10 +5794,10 @@
         <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L72" t="s">
         <v>113</v>
@@ -5809,7 +5812,7 @@
         <v>50</v>
       </c>
       <c r="P72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R72">
         <v>3</v>
@@ -5842,7 +5845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>111</v>
       </c>
@@ -5859,10 +5862,10 @@
         <v>37</v>
       </c>
       <c r="H73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L73" t="s">
         <v>113</v>
@@ -5877,7 +5880,7 @@
         <v>56</v>
       </c>
       <c r="P73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R73">
         <v>4</v>
@@ -5899,7 +5902,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>115</v>
       </c>
@@ -5916,10 +5919,10 @@
         <v>37</v>
       </c>
       <c r="H74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L74" t="s">
         <v>117</v>
@@ -5971,7 +5974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>115</v>
       </c>
@@ -5988,10 +5991,10 @@
         <v>37</v>
       </c>
       <c r="H75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L75" t="s">
         <v>117</v>
@@ -6031,7 +6034,7 @@
       </c>
       <c r="AC75"/>
       <c r="AE75" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG75" t="s">
         <v>46</v>
@@ -6040,7 +6043,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>115</v>
       </c>
@@ -6057,10 +6060,10 @@
         <v>37</v>
       </c>
       <c r="H76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L76" t="s">
         <v>117</v>
@@ -6075,7 +6078,7 @@
         <v>50</v>
       </c>
       <c r="P76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R76">
         <v>3</v>
@@ -6108,7 +6111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>115</v>
       </c>
@@ -6125,10 +6128,10 @@
         <v>37</v>
       </c>
       <c r="H77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L77" t="s">
         <v>117</v>
@@ -6143,7 +6146,7 @@
         <v>56</v>
       </c>
       <c r="P77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R77">
         <v>4</v>
@@ -6165,12 +6168,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D78" t="s">
         <v>35</v>
@@ -6182,13 +6185,13 @@
         <v>37</v>
       </c>
       <c r="H78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M78" t="s">
         <v>39</v>
@@ -6237,12 +6240,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>123</v>
       </c>
       <c r="C79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D79" t="s">
         <v>35</v>
@@ -6254,13 +6257,13 @@
         <v>37</v>
       </c>
       <c r="H79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M79" t="s">
         <v>46</v>
@@ -6297,7 +6300,7 @@
       </c>
       <c r="AC79"/>
       <c r="AE79" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG79" t="s">
         <v>46</v>
@@ -6306,12 +6309,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>123</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D80" t="s">
         <v>35</v>
@@ -6323,13 +6326,13 @@
         <v>37</v>
       </c>
       <c r="H80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M80" t="s">
         <v>49</v>
@@ -6341,7 +6344,7 @@
         <v>50</v>
       </c>
       <c r="P80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R80">
         <v>3</v>
@@ -6362,10 +6365,10 @@
         <v>90</v>
       </c>
       <c r="AB80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG80" t="s">
         <v>49</v>
@@ -6374,12 +6377,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>123</v>
       </c>
       <c r="C81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D81" t="s">
         <v>35</v>
@@ -6391,13 +6394,13 @@
         <v>37</v>
       </c>
       <c r="H81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M81" t="s">
         <v>55</v>
@@ -6409,7 +6412,7 @@
         <v>56</v>
       </c>
       <c r="P81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R81">
         <v>4</v>
@@ -6431,7 +6434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>119</v>
       </c>
@@ -6448,10 +6451,10 @@
         <v>37</v>
       </c>
       <c r="H82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L82" t="s">
         <v>121</v>
@@ -6503,7 +6506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>119</v>
       </c>
@@ -6520,10 +6523,10 @@
         <v>37</v>
       </c>
       <c r="H83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L83" t="s">
         <v>121</v>
@@ -6563,7 +6566,7 @@
       </c>
       <c r="AC83"/>
       <c r="AE83" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG83" t="s">
         <v>46</v>
@@ -6572,7 +6575,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>119</v>
       </c>
@@ -6589,10 +6592,10 @@
         <v>37</v>
       </c>
       <c r="H84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L84" t="s">
         <v>121</v>
@@ -6607,7 +6610,7 @@
         <v>50</v>
       </c>
       <c r="P84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R84">
         <v>3</v>
@@ -6640,7 +6643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>119</v>
       </c>
@@ -6657,10 +6660,10 @@
         <v>37</v>
       </c>
       <c r="H85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L85" t="s">
         <v>121</v>
@@ -6675,7 +6678,7 @@
         <v>56</v>
       </c>
       <c r="P85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R85">
         <v>4</v>
@@ -6697,7 +6700,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>123</v>
       </c>
@@ -6714,10 +6717,10 @@
         <v>37</v>
       </c>
       <c r="H86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L86" t="s">
         <v>125</v>
@@ -6769,7 +6772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>123</v>
       </c>
@@ -6786,10 +6789,10 @@
         <v>37</v>
       </c>
       <c r="H87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L87" t="s">
         <v>125</v>
@@ -6829,7 +6832,7 @@
       </c>
       <c r="AC87"/>
       <c r="AE87" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG87" t="s">
         <v>46</v>
@@ -6838,7 +6841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>123</v>
       </c>
@@ -6855,10 +6858,10 @@
         <v>37</v>
       </c>
       <c r="H88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L88" t="s">
         <v>125</v>
@@ -6873,7 +6876,7 @@
         <v>50</v>
       </c>
       <c r="P88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R88">
         <v>3</v>
@@ -6897,7 +6900,7 @@
         <v>126</v>
       </c>
       <c r="AC88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG88" t="s">
         <v>49</v>
@@ -6906,7 +6909,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>123</v>
       </c>
@@ -6923,10 +6926,10 @@
         <v>37</v>
       </c>
       <c r="H89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L89" t="s">
         <v>125</v>
@@ -6941,7 +6944,7 @@
         <v>56</v>
       </c>
       <c r="P89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R89">
         <v>4</v>
@@ -6963,7 +6966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>33</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>34</v>
       </c>
       <c r="J90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L90" t="s">
         <v>38</v>
@@ -7036,7 +7039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>33</v>
       </c>
@@ -7056,7 +7059,7 @@
         <v>34</v>
       </c>
       <c r="J91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L91" t="s">
         <v>38</v>
@@ -7097,7 +7100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>33</v>
       </c>
@@ -7117,7 +7120,7 @@
         <v>34</v>
       </c>
       <c r="J92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L92" t="s">
         <v>38</v>
@@ -7170,7 +7173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>33</v>
       </c>
@@ -7190,7 +7193,7 @@
         <v>34</v>
       </c>
       <c r="J93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L93" t="s">
         <v>38</v>
@@ -7228,7 +7231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>33</v>
       </c>
@@ -7245,10 +7248,10 @@
         <v>37</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="J94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>38</v>
@@ -7301,7 +7304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>33</v>
       </c>
@@ -7318,10 +7321,10 @@
         <v>37</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="J95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>38</v>
@@ -7362,7 +7365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>33</v>
       </c>
@@ -7379,10 +7382,10 @@
         <v>37</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="J96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>38</v>
@@ -7435,7 +7438,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>33</v>
       </c>
@@ -7452,10 +7455,10 @@
         <v>37</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="J97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>38</v>
@@ -7470,7 +7473,7 @@
         <v>56</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="R97">
         <v>4</v>
@@ -7493,7 +7496,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>60</v>
       </c>
@@ -7566,7 +7569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>60</v>
       </c>
@@ -7627,7 +7630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>60</v>
       </c>
@@ -7697,7 +7700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>60</v>
       </c>
@@ -7755,12 +7758,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>71</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D102" t="s">
         <v>35</v>
@@ -7772,13 +7775,13 @@
         <v>37</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M102" t="s">
         <v>39</v>
@@ -7828,12 +7831,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>71</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D103" t="s">
         <v>35</v>
@@ -7845,13 +7848,13 @@
         <v>37</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M103" t="s">
         <v>46</v>
@@ -7889,12 +7892,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>71</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D104" t="s">
         <v>35</v>
@@ -7906,13 +7909,13 @@
         <v>37</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M104" t="s">
         <v>49</v>
@@ -7947,11 +7950,11 @@
       <c r="AB104"/>
       <c r="AC104"/>
       <c r="AE104" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF104" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="AF104" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="AG104" t="s">
         <v>49</v>
       </c>
@@ -7959,12 +7962,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>71</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D105" t="s">
         <v>35</v>
@@ -7976,13 +7979,13 @@
         <v>37</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M105" t="s">
         <v>55</v>
@@ -7994,7 +7997,7 @@
         <v>56</v>
       </c>
       <c r="P105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R105">
         <v>4</v>
@@ -8017,7 +8020,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>80</v>
       </c>
@@ -8034,10 +8037,10 @@
         <v>37</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>82</v>
@@ -8088,7 +8091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>80</v>
       </c>
@@ -8105,10 +8108,10 @@
         <v>37</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L107" s="5" t="s">
         <v>82</v>
@@ -8156,7 +8159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>80</v>
       </c>
@@ -8173,10 +8176,10 @@
         <v>37</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L108" s="5" t="s">
         <v>82</v>
@@ -8191,7 +8194,7 @@
         <v>50</v>
       </c>
       <c r="P108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R108">
         <v>3</v>
@@ -8226,7 +8229,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>80</v>
       </c>
@@ -8243,10 +8246,10 @@
         <v>37</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L109" s="5" t="s">
         <v>82</v>
@@ -8285,7 +8288,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>80</v>
       </c>
@@ -8302,10 +8305,10 @@
         <v>37</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L110" s="5" t="s">
         <v>82</v>
@@ -8320,7 +8323,7 @@
         <v>56</v>
       </c>
       <c r="P110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R110">
         <v>5</v>
@@ -8345,7 +8348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>95</v>
       </c>
@@ -8362,10 +8365,10 @@
         <v>37</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>97</v>
@@ -8417,7 +8420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>95</v>
       </c>
@@ -8434,10 +8437,10 @@
         <v>37</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>97</v>
@@ -8486,7 +8489,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>95</v>
       </c>
@@ -8503,10 +8506,10 @@
         <v>37</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>97</v>
@@ -8521,7 +8524,7 @@
         <v>50</v>
       </c>
       <c r="P113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R113">
         <v>3</v>
@@ -8545,7 +8548,7 @@
         <v>98</v>
       </c>
       <c r="AC113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG113" t="s">
         <v>49</v>
@@ -8554,7 +8557,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>95</v>
       </c>
@@ -8571,10 +8574,10 @@
         <v>37</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>97</v>
@@ -8589,7 +8592,7 @@
         <v>93</v>
       </c>
       <c r="Q114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R114">
         <v>4</v>
@@ -8611,7 +8614,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>95</v>
       </c>
@@ -8628,10 +8631,10 @@
         <v>37</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>97</v>
@@ -8646,7 +8649,7 @@
         <v>56</v>
       </c>
       <c r="P115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R115">
         <v>5</v>
@@ -8667,12 +8670,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>123</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D116" t="s">
         <v>35</v>
@@ -8684,13 +8687,13 @@
         <v>37</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M116" t="s">
         <v>39</v>
@@ -8740,12 +8743,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>123</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D117" t="s">
         <v>35</v>
@@ -8757,13 +8760,13 @@
         <v>37</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M117" t="s">
         <v>46</v>
@@ -8808,12 +8811,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D118" t="s">
         <v>35</v>
@@ -8825,13 +8828,13 @@
         <v>37</v>
       </c>
       <c r="H118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M118" t="s">
         <v>49</v>
@@ -8864,11 +8867,11 @@
         <v>90</v>
       </c>
       <c r="AB118" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC118" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AC118" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="AG118" t="s">
         <v>49</v>
       </c>
@@ -8876,12 +8879,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D119" t="s">
         <v>35</v>
@@ -8893,13 +8896,13 @@
         <v>37</v>
       </c>
       <c r="H119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J119" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M119" t="s">
         <v>55</v>
@@ -8911,7 +8914,7 @@
         <v>56</v>
       </c>
       <c r="P119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R119">
         <v>4</v>
@@ -8934,12 +8937,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D120" t="s">
         <v>35</v>
@@ -8951,13 +8954,13 @@
         <v>37</v>
       </c>
       <c r="H120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M120" t="s">
         <v>39</v>
@@ -9003,12 +9006,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D121" t="s">
         <v>35</v>
@@ -9020,13 +9023,13 @@
         <v>37</v>
       </c>
       <c r="H121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M121" t="s">
         <v>46</v>
@@ -9070,12 +9073,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D122" t="s">
         <v>35</v>
@@ -9087,13 +9090,13 @@
         <v>37</v>
       </c>
       <c r="H122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J122" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M122" t="s">
         <v>49</v>
@@ -9105,7 +9108,7 @@
         <v>50</v>
       </c>
       <c r="P122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R122">
         <v>3</v>
@@ -9126,10 +9129,10 @@
         <v>90</v>
       </c>
       <c r="AB122" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC122" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG122" t="s">
         <v>49</v>
@@ -9138,12 +9141,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D123" t="s">
         <v>35</v>
@@ -9155,13 +9158,13 @@
         <v>37</v>
       </c>
       <c r="H123" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M123" t="s">
         <v>55</v>
@@ -9173,7 +9176,7 @@
         <v>56</v>
       </c>
       <c r="P123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R123">
         <v>4</v>
@@ -9196,7 +9199,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>99</v>
       </c>
@@ -9213,10 +9216,10 @@
         <v>37</v>
       </c>
       <c r="H124" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L124" t="s">
         <v>101</v>
@@ -9268,7 +9271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>99</v>
       </c>
@@ -9285,10 +9288,10 @@
         <v>37</v>
       </c>
       <c r="H125" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L125" t="s">
         <v>101</v>
@@ -9335,7 +9338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>99</v>
       </c>
@@ -9352,10 +9355,10 @@
         <v>37</v>
       </c>
       <c r="H126" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L126" t="s">
         <v>101</v>
@@ -9370,7 +9373,7 @@
         <v>50</v>
       </c>
       <c r="P126" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R126">
         <v>3</v>
@@ -9403,7 +9406,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>99</v>
       </c>
@@ -9420,10 +9423,10 @@
         <v>37</v>
       </c>
       <c r="H127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L127" t="s">
         <v>101</v>
@@ -9438,7 +9441,7 @@
         <v>56</v>
       </c>
       <c r="P127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R127">
         <v>4</v>
@@ -9460,7 +9463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>107</v>
       </c>
@@ -9477,10 +9480,10 @@
         <v>37</v>
       </c>
       <c r="H128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L128" t="s">
         <v>109</v>
@@ -9532,7 +9535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>107</v>
       </c>
@@ -9549,10 +9552,10 @@
         <v>37</v>
       </c>
       <c r="H129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L129" t="s">
         <v>109</v>
@@ -9599,7 +9602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>107</v>
       </c>
@@ -9616,10 +9619,10 @@
         <v>37</v>
       </c>
       <c r="H130" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L130" t="s">
         <v>109</v>
@@ -9634,7 +9637,7 @@
         <v>50</v>
       </c>
       <c r="P130" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R130">
         <v>3</v>
@@ -9655,7 +9658,7 @@
         <v>90</v>
       </c>
       <c r="AB130" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC130" t="s">
         <v>109</v>
@@ -9667,7 +9670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>107</v>
       </c>
@@ -9684,10 +9687,10 @@
         <v>37</v>
       </c>
       <c r="H131" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L131" t="s">
         <v>109</v>
@@ -9702,7 +9705,7 @@
         <v>56</v>
       </c>
       <c r="P131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R131">
         <v>4</v>
@@ -9724,7 +9727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>111</v>
       </c>
@@ -9741,10 +9744,10 @@
         <v>37</v>
       </c>
       <c r="H132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L132" t="s">
         <v>113</v>
@@ -9796,7 +9799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>111</v>
       </c>
@@ -9813,10 +9816,10 @@
         <v>37</v>
       </c>
       <c r="H133" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J133" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L133" t="s">
         <v>113</v>
@@ -9863,7 +9866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>111</v>
       </c>
@@ -9880,10 +9883,10 @@
         <v>37</v>
       </c>
       <c r="H134" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J134" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L134" t="s">
         <v>113</v>
@@ -9898,7 +9901,7 @@
         <v>50</v>
       </c>
       <c r="P134" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R134">
         <v>3</v>
@@ -9931,7 +9934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>111</v>
       </c>
@@ -9948,10 +9951,10 @@
         <v>37</v>
       </c>
       <c r="H135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L135" t="s">
         <v>113</v>
@@ -9966,7 +9969,7 @@
         <v>56</v>
       </c>
       <c r="P135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R135">
         <v>4</v>
@@ -9988,7 +9991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>115</v>
       </c>
@@ -10005,10 +10008,10 @@
         <v>37</v>
       </c>
       <c r="H136" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L136" t="s">
         <v>117</v>
@@ -10060,7 +10063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>115</v>
       </c>
@@ -10077,10 +10080,10 @@
         <v>37</v>
       </c>
       <c r="H137" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L137" t="s">
         <v>117</v>
@@ -10127,7 +10130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>115</v>
       </c>
@@ -10144,10 +10147,10 @@
         <v>37</v>
       </c>
       <c r="H138" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L138" t="s">
         <v>117</v>
@@ -10162,7 +10165,7 @@
         <v>50</v>
       </c>
       <c r="P138" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R138">
         <v>3</v>
@@ -10195,7 +10198,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>115</v>
       </c>
@@ -10212,10 +10215,10 @@
         <v>37</v>
       </c>
       <c r="H139" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L139" t="s">
         <v>117</v>
@@ -10230,7 +10233,7 @@
         <v>56</v>
       </c>
       <c r="P139" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R139">
         <v>4</v>
@@ -10252,12 +10255,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>123</v>
       </c>
       <c r="C140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D140" t="s">
         <v>35</v>
@@ -10269,13 +10272,13 @@
         <v>37</v>
       </c>
       <c r="H140" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M140" t="s">
         <v>39</v>
@@ -10324,12 +10327,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>123</v>
       </c>
       <c r="C141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D141" t="s">
         <v>35</v>
@@ -10341,13 +10344,13 @@
         <v>37</v>
       </c>
       <c r="H141" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M141" t="s">
         <v>46</v>
@@ -10391,12 +10394,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>123</v>
       </c>
       <c r="C142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D142" t="s">
         <v>35</v>
@@ -10408,13 +10411,13 @@
         <v>37</v>
       </c>
       <c r="H142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M142" t="s">
         <v>49</v>
@@ -10426,7 +10429,7 @@
         <v>50</v>
       </c>
       <c r="P142" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R142">
         <v>3</v>
@@ -10447,10 +10450,10 @@
         <v>90</v>
       </c>
       <c r="AB142" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG142" t="s">
         <v>49</v>
@@ -10459,12 +10462,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>123</v>
       </c>
       <c r="C143" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -10476,13 +10479,13 @@
         <v>37</v>
       </c>
       <c r="H143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M143" t="s">
         <v>55</v>
@@ -10494,7 +10497,7 @@
         <v>56</v>
       </c>
       <c r="P143" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R143">
         <v>4</v>
@@ -10516,7 +10519,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>119</v>
       </c>
@@ -10533,10 +10536,10 @@
         <v>37</v>
       </c>
       <c r="H144" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L144" t="s">
         <v>121</v>
@@ -10588,7 +10591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>119</v>
       </c>
@@ -10605,10 +10608,10 @@
         <v>37</v>
       </c>
       <c r="H145" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L145" t="s">
         <v>121</v>
@@ -10655,7 +10658,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>119</v>
       </c>
@@ -10672,10 +10675,10 @@
         <v>37</v>
       </c>
       <c r="H146" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L146" t="s">
         <v>121</v>
@@ -10690,7 +10693,7 @@
         <v>50</v>
       </c>
       <c r="P146" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R146">
         <v>3</v>
@@ -10723,7 +10726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>119</v>
       </c>
@@ -10740,10 +10743,10 @@
         <v>37</v>
       </c>
       <c r="H147" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L147" t="s">
         <v>121</v>
@@ -10758,7 +10761,7 @@
         <v>56</v>
       </c>
       <c r="P147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R147">
         <v>4</v>
@@ -10780,7 +10783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>123</v>
       </c>
@@ -10797,10 +10800,10 @@
         <v>37</v>
       </c>
       <c r="H148" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J148" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L148" t="s">
         <v>125</v>
@@ -10852,7 +10855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>123</v>
       </c>
@@ -10869,10 +10872,10 @@
         <v>37</v>
       </c>
       <c r="H149" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J149" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L149" t="s">
         <v>125</v>
@@ -10919,7 +10922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>123</v>
       </c>
@@ -10936,10 +10939,10 @@
         <v>37</v>
       </c>
       <c r="H150" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J150" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L150" t="s">
         <v>125</v>
@@ -10954,7 +10957,7 @@
         <v>50</v>
       </c>
       <c r="P150" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R150">
         <v>3</v>
@@ -10987,7 +10990,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>123</v>
       </c>
@@ -11004,10 +11007,10 @@
         <v>37</v>
       </c>
       <c r="H151" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J151" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L151" t="s">
         <v>125</v>
@@ -11022,7 +11025,7 @@
         <v>56</v>
       </c>
       <c r="P151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R151">
         <v>4</v>
@@ -11044,7 +11047,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>71</v>
       </c>
@@ -11064,7 +11067,7 @@
         <v>72</v>
       </c>
       <c r="J152" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L152" t="s">
         <v>73</v>
@@ -11117,7 +11120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>71</v>
       </c>
@@ -11137,7 +11140,7 @@
         <v>72</v>
       </c>
       <c r="J153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L153" t="s">
         <v>73</v>
@@ -11178,7 +11181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>71</v>
       </c>
@@ -11198,7 +11201,7 @@
         <v>72</v>
       </c>
       <c r="J154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L154" t="s">
         <v>73</v>
@@ -11248,7 +11251,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>71</v>
       </c>
@@ -11268,7 +11271,7 @@
         <v>72</v>
       </c>
       <c r="J155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L155" t="s">
         <v>73</v>

--- a/curation/draft/collection/collection_specialization_DS.xlsx
+++ b/curation/draft/collection/collection_specialization_DS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B357049-D489-4433-8AED-37DCE9FF9073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE6173E-9285-6D45-8F9D-BA15FAD43A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="2000" windowWidth="29900" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_DS" sheetId="1" r:id="rId1"/>
@@ -1017,30 +1017,30 @@
   <dimension ref="A1:AJ155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="30.33203125" customWidth="1"/>
     <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="46.140625" customWidth="1"/>
-    <col min="17" max="17" width="31.140625" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" customWidth="1"/>
-    <col min="28" max="28" width="42.140625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="22.28515625" style="4" customWidth="1"/>
-    <col min="30" max="30" width="13.85546875" customWidth="1"/>
-    <col min="31" max="31" width="36.42578125" customWidth="1"/>
-    <col min="32" max="32" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="46.1640625" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="27" max="27" width="20.5" customWidth="1"/>
+    <col min="28" max="28" width="42.1640625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="22.33203125" style="4" customWidth="1"/>
+    <col min="30" max="30" width="13.83203125" customWidth="1"/>
+    <col min="31" max="31" width="36.5" customWidth="1"/>
+    <col min="32" max="32" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>123</v>
       </c>
@@ -1213,8 +1213,8 @@
       <c r="AE2" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" t="s">
-        <v>84</v>
+      <c r="AF2" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="AG2" t="s">
         <v>39</v>
@@ -1223,7 +1223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>123</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>123</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>123</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>66</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>80</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>80</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>80</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>80</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>95</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>95</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>95</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>95</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>95</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>99</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>99</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>99</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>103</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>103</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>103</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>103</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>107</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>107</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>107</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>107</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>111</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>111</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>111</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>111</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>115</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>115</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>115</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>115</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>123</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>123</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>123</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>123</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>119</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>119</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>119</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>119</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>123</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>123</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>123</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>123</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>80</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>80</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>80</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>80</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>80</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>95</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>95</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>95</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>95</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>95</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>99</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>99</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>99</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>99</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>107</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>107</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>107</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>107</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>111</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>111</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>111</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>111</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>115</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>115</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>115</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>115</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>123</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>123</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>123</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>123</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>119</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>119</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>119</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>119</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>123</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>123</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>123</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>123</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>33</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>33</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>33</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>33</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>33</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>33</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>33</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>33</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>60</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>60</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>60</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>60</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>71</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>71</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>71</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>71</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>80</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>80</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>80</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>80</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>80</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>95</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>95</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>95</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>95</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>95</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>123</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>123</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>123</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>123</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>123</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>123</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>123</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>123</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>99</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>99</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>99</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>99</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>107</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>107</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>107</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>107</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>111</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>111</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>111</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>111</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>115</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>115</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>115</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>115</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>123</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>123</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>123</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>123</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>119</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>119</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>119</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>119</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>123</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>123</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>123</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>123</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>71</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>71</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>71</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>71</v>
       </c>

--- a/curation/draft/collection/collection_specialization_DS.xlsx
+++ b/curation/draft/collection/collection_specialization_DS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE6173E-9285-6D45-8F9D-BA15FAD43A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C557D74-151A-44B3-A772-B4EE3E8A7CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="2000" windowWidth="29900" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_DS" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="196">
   <si>
     <t>package_date</t>
   </si>
@@ -1019,28 +1019,28 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="AC54" sqref="AC54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" customWidth="1"/>
+    <col min="8" max="8" width="23.46484375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="30.33203125" customWidth="1"/>
     <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="19.46484375" customWidth="1"/>
     <col min="15" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="46.1640625" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="27" max="27" width="20.5" customWidth="1"/>
-    <col min="28" max="28" width="42.1640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="46.1328125" customWidth="1"/>
+    <col min="17" max="17" width="31.1328125" customWidth="1"/>
+    <col min="27" max="27" width="20.46484375" customWidth="1"/>
+    <col min="28" max="28" width="42.1328125" style="4" customWidth="1"/>
     <col min="29" max="29" width="22.33203125" style="4" customWidth="1"/>
-    <col min="30" max="30" width="13.83203125" customWidth="1"/>
-    <col min="31" max="31" width="36.5" customWidth="1"/>
-    <col min="32" max="32" width="17.83203125" customWidth="1"/>
+    <col min="30" max="30" width="13.796875" customWidth="1"/>
+    <col min="31" max="31" width="36.46484375" customWidth="1"/>
+    <col min="32" max="32" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>123</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>123</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>123</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>123</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>66</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>80</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>80</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>80</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>80</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>95</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>95</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>95</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>95</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>95</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>99</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>99</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>99</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>103</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>103</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>103</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>103</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>107</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>107</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>107</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>107</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>111</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>111</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>111</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>111</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>115</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>115</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>115</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>115</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>123</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>123</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>123</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>123</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>119</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>119</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>119</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>119</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>123</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>123</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>123</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>123</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>80</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>80</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>80</v>
       </c>
@@ -4653,15 +4653,13 @@
       <c r="AA54" t="s">
         <v>90</v>
       </c>
-      <c r="AB54" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC54" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="AB54"/>
       <c r="AE54" t="s">
         <v>91</v>
       </c>
+      <c r="AF54" t="s">
+        <v>80</v>
+      </c>
       <c r="AG54" t="s">
         <v>49</v>
       </c>
@@ -4669,7 +4667,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>80</v>
       </c>
@@ -4725,7 +4723,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>80</v>
       </c>
@@ -4781,7 +4779,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>95</v>
       </c>
@@ -4853,7 +4851,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>95</v>
       </c>
@@ -4922,7 +4920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>95</v>
       </c>
@@ -4990,7 +4988,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>95</v>
       </c>
@@ -5047,7 +5045,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>95</v>
       </c>
@@ -5104,7 +5102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>99</v>
       </c>
@@ -5176,7 +5174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>99</v>
       </c>
@@ -5245,7 +5243,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>99</v>
       </c>
@@ -5313,7 +5311,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>99</v>
       </c>
@@ -5370,7 +5368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>107</v>
       </c>
@@ -5442,7 +5440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>107</v>
       </c>
@@ -5511,7 +5509,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>107</v>
       </c>
@@ -5579,7 +5577,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>107</v>
       </c>
@@ -5636,7 +5634,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>111</v>
       </c>
@@ -5708,7 +5706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>111</v>
       </c>
@@ -5777,7 +5775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>111</v>
       </c>
@@ -5845,7 +5843,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>111</v>
       </c>
@@ -5902,7 +5900,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>115</v>
       </c>
@@ -5974,7 +5972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>115</v>
       </c>
@@ -6043,7 +6041,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>115</v>
       </c>
@@ -6111,7 +6109,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>115</v>
       </c>
@@ -6168,7 +6166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>123</v>
       </c>
@@ -6240,7 +6238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>123</v>
       </c>
@@ -6309,7 +6307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>123</v>
       </c>
@@ -6377,7 +6375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>123</v>
       </c>
@@ -6434,7 +6432,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>119</v>
       </c>
@@ -6506,7 +6504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>119</v>
       </c>
@@ -6575,7 +6573,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
         <v>119</v>
       </c>
@@ -6643,7 +6641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>119</v>
       </c>
@@ -6700,7 +6698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
         <v>123</v>
       </c>
@@ -6772,7 +6770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
         <v>123</v>
       </c>
@@ -6841,7 +6839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
         <v>123</v>
       </c>
@@ -6909,7 +6907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
         <v>123</v>
       </c>
@@ -6966,7 +6964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
         <v>33</v>
       </c>
@@ -7039,7 +7037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>33</v>
       </c>
@@ -7100,7 +7098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
         <v>33</v>
       </c>
@@ -7173,7 +7171,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>33</v>
       </c>
@@ -7231,7 +7229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
         <v>33</v>
       </c>
@@ -7304,7 +7302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>33</v>
       </c>
@@ -7365,7 +7363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>33</v>
       </c>
@@ -7438,7 +7436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
         <v>33</v>
       </c>
@@ -7496,7 +7494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>60</v>
       </c>
@@ -7569,7 +7567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
         <v>60</v>
       </c>
@@ -7630,7 +7628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
         <v>60</v>
       </c>
@@ -7700,7 +7698,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
         <v>60</v>
       </c>
@@ -7758,7 +7756,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>71</v>
       </c>
@@ -7831,7 +7829,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>71</v>
       </c>
@@ -7892,7 +7890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>71</v>
       </c>
@@ -7962,7 +7960,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
         <v>71</v>
       </c>
@@ -8020,7 +8018,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>80</v>
       </c>
@@ -8091,7 +8089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
         <v>80</v>
       </c>
@@ -8159,7 +8157,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>80</v>
       </c>
@@ -8229,7 +8227,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
         <v>80</v>
       </c>
@@ -8288,7 +8286,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
         <v>80</v>
       </c>
@@ -8348,7 +8346,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
         <v>95</v>
       </c>
@@ -8420,7 +8418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
         <v>95</v>
       </c>
@@ -8489,7 +8487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B113" t="s">
         <v>95</v>
       </c>
@@ -8557,7 +8555,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>95</v>
       </c>
@@ -8614,7 +8612,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
         <v>95</v>
       </c>
@@ -8670,7 +8668,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
         <v>123</v>
       </c>
@@ -8743,7 +8741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
         <v>123</v>
       </c>
@@ -8811,7 +8809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
         <v>123</v>
       </c>
@@ -8879,7 +8877,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
         <v>123</v>
       </c>
@@ -8937,7 +8935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
         <v>123</v>
       </c>
@@ -9006,7 +9004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>123</v>
       </c>
@@ -9073,7 +9071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
         <v>123</v>
       </c>
@@ -9141,7 +9139,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
         <v>123</v>
       </c>
@@ -9199,7 +9197,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
         <v>99</v>
       </c>
@@ -9271,7 +9269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
         <v>99</v>
       </c>
@@ -9338,7 +9336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
         <v>99</v>
       </c>
@@ -9406,7 +9404,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
         <v>99</v>
       </c>
@@ -9463,7 +9461,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
         <v>107</v>
       </c>
@@ -9535,7 +9533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
         <v>107</v>
       </c>
@@ -9602,7 +9600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>107</v>
       </c>
@@ -9670,7 +9668,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
         <v>107</v>
       </c>
@@ -9727,7 +9725,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B132" t="s">
         <v>111</v>
       </c>
@@ -9799,7 +9797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
         <v>111</v>
       </c>
@@ -9866,7 +9864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B134" t="s">
         <v>111</v>
       </c>
@@ -9934,7 +9932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
         <v>111</v>
       </c>
@@ -9991,7 +9989,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B136" t="s">
         <v>115</v>
       </c>
@@ -10063,7 +10061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B137" t="s">
         <v>115</v>
       </c>
@@ -10130,7 +10128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B138" t="s">
         <v>115</v>
       </c>
@@ -10198,7 +10196,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
         <v>115</v>
       </c>
@@ -10255,7 +10253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B140" t="s">
         <v>123</v>
       </c>
@@ -10327,7 +10325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B141" t="s">
         <v>123</v>
       </c>
@@ -10394,7 +10392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B142" t="s">
         <v>123</v>
       </c>
@@ -10462,7 +10460,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B143" t="s">
         <v>123</v>
       </c>
@@ -10519,7 +10517,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B144" t="s">
         <v>119</v>
       </c>
@@ -10591,7 +10589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B145" t="s">
         <v>119</v>
       </c>
@@ -10658,7 +10656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B146" t="s">
         <v>119</v>
       </c>
@@ -10726,7 +10724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B147" t="s">
         <v>119</v>
       </c>
@@ -10783,7 +10781,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B148" t="s">
         <v>123</v>
       </c>
@@ -10855,7 +10853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B149" t="s">
         <v>123</v>
       </c>
@@ -10922,7 +10920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
         <v>123</v>
       </c>
@@ -10990,7 +10988,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B151" t="s">
         <v>123</v>
       </c>
@@ -11047,7 +11045,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
         <v>71</v>
       </c>
@@ -11120,7 +11118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B153" t="s">
         <v>71</v>
       </c>
@@ -11181,7 +11179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B154" t="s">
         <v>71</v>
       </c>
@@ -11251,7 +11249,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B155" t="s">
         <v>71</v>
       </c>
@@ -11317,5 +11315,6 @@
     <sortCondition ref="R2:R155"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/curation/draft/collection/collection_specialization_DS.xlsx
+++ b/curation/draft/collection/collection_specialization_DS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C557D74-151A-44B3-A772-B4EE3E8A7CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68D4084-6942-48B1-B2EF-C85566A11153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_DS" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="195">
   <si>
     <t>package_date</t>
   </si>
@@ -418,9 +418,6 @@
     <t>End of Treatment</t>
   </si>
   <si>
-    <t>STUDY TREATMENT</t>
-  </si>
-  <si>
     <t>What was the subject's status at the end of treatment?</t>
   </si>
   <si>
@@ -502,15 +499,6 @@
     <t>What was the date of the site transfer?</t>
   </si>
   <si>
-    <t>Death</t>
-  </si>
-  <si>
-    <t>Withdrawal by Subject</t>
-  </si>
-  <si>
-    <t>PHYSIAN DECISON</t>
-  </si>
-  <si>
     <t>What was the subject's status at the &lt;protocol-specified timepoint&gt;</t>
   </si>
   <si>
@@ -611,13 +599,22 @@
   </si>
   <si>
     <t>CONSENT_360</t>
+  </si>
+  <si>
+    <t>C50996</t>
+  </si>
+  <si>
+    <t>C139236</t>
+  </si>
+  <si>
+    <t>C105448</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,13 +633,6 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -695,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -711,7 +701,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,31 +1005,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="AC54" sqref="AC54"/>
+      <selection pane="bottomLeft" activeCell="AE130" sqref="AE130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.796875" customWidth="1"/>
-    <col min="8" max="8" width="23.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="30.28515625" customWidth="1"/>
     <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="19.46484375" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="46.1328125" customWidth="1"/>
-    <col min="17" max="17" width="31.1328125" customWidth="1"/>
-    <col min="27" max="27" width="20.46484375" customWidth="1"/>
-    <col min="28" max="28" width="42.1328125" style="4" customWidth="1"/>
-    <col min="29" max="29" width="22.33203125" style="4" customWidth="1"/>
-    <col min="30" max="30" width="13.796875" customWidth="1"/>
-    <col min="31" max="31" width="36.46484375" customWidth="1"/>
-    <col min="32" max="32" width="17.796875" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="46.140625" customWidth="1"/>
+    <col min="17" max="17" width="31.140625" customWidth="1"/>
+    <col min="27" max="27" width="20.42578125" customWidth="1"/>
+    <col min="28" max="28" width="42.140625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="22.28515625" style="4" customWidth="1"/>
+    <col min="30" max="30" width="13.85546875" customWidth="1"/>
+    <col min="31" max="31" width="44.42578125" customWidth="1"/>
+    <col min="32" max="32" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1061,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -1111,10 +1100,10 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>22</v>
@@ -1150,12 +1139,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -1167,13 +1156,13 @@
         <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M2" t="s">
         <v>39</v>
@@ -1223,12 +1212,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -1240,13 +1229,13 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M3" t="s">
         <v>46</v>
@@ -1291,12 +1280,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -1308,13 +1297,13 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M4" t="s">
         <v>49</v>
@@ -1349,11 +1338,11 @@
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AE4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF4" t="s">
         <v>142</v>
       </c>
-      <c r="AF4" t="s">
-        <v>143</v>
-      </c>
       <c r="AG4" t="s">
         <v>49</v>
       </c>
@@ -1361,12 +1350,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -1378,13 +1367,13 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M5" t="s">
         <v>55</v>
@@ -1396,7 +1385,7 @@
         <v>56</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -1419,7 +1408,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>66</v>
       </c>
@@ -1492,7 +1481,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -1553,7 +1542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -1623,7 +1612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -1681,7 +1670,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>80</v>
       </c>
@@ -1698,7 +1687,7 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J10" t="s">
         <v>127</v>
@@ -1752,7 +1741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>80</v>
       </c>
@@ -1769,7 +1758,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J11" t="s">
         <v>127</v>
@@ -1822,7 +1811,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -1839,7 +1828,7 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J12" t="s">
         <v>127</v>
@@ -1877,13 +1866,13 @@
       <c r="AA12" t="s">
         <v>90</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12"/>
+      <c r="AE12" t="s">
         <v>91</v>
       </c>
-      <c r="AC12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE12" s="4"/>
+      <c r="AF12" t="s">
+        <v>80</v>
+      </c>
       <c r="AG12" t="s">
         <v>49</v>
       </c>
@@ -1891,7 +1880,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>80</v>
       </c>
@@ -1908,7 +1897,7 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
         <v>127</v>
@@ -1940,9 +1929,7 @@
       <c r="U13">
         <v>200</v>
       </c>
-      <c r="AB13"/>
       <c r="AC13"/>
-      <c r="AE13" s="4"/>
       <c r="AG13" t="s">
         <v>92</v>
       </c>
@@ -1950,7 +1937,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>80</v>
       </c>
@@ -1967,7 +1954,7 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
         <v>127</v>
@@ -1985,7 +1972,7 @@
         <v>56</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R14">
         <v>5</v>
@@ -1999,9 +1986,7 @@
       <c r="U14">
         <v>10</v>
       </c>
-      <c r="AB14"/>
       <c r="AC14"/>
-      <c r="AE14" s="4"/>
       <c r="AG14" t="s">
         <v>59</v>
       </c>
@@ -2009,7 +1994,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>95</v>
       </c>
@@ -2026,7 +2011,7 @@
         <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
         <v>127</v>
@@ -2068,7 +2053,7 @@
         <v>39</v>
       </c>
       <c r="AC15"/>
-      <c r="AE15" t="s">
+      <c r="AE15" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF15" t="s">
@@ -2081,7 +2066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>95</v>
       </c>
@@ -2098,7 +2083,7 @@
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
         <v>127</v>
@@ -2140,9 +2125,7 @@
         <v>46</v>
       </c>
       <c r="AC16"/>
-      <c r="AE16" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="AE16" s="4"/>
       <c r="AG16" t="s">
         <v>46</v>
       </c>
@@ -2150,7 +2133,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>95</v>
       </c>
@@ -2167,7 +2150,7 @@
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
         <v>127</v>
@@ -2205,11 +2188,12 @@
       <c r="AA17" t="s">
         <v>90</v>
       </c>
-      <c r="AB17" s="4" t="s">
+      <c r="AC17"/>
+      <c r="AE17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AC17" t="s">
-        <v>159</v>
+      <c r="AF17" t="s">
+        <v>95</v>
       </c>
       <c r="AG17" t="s">
         <v>49</v>
@@ -2218,7 +2202,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>95</v>
       </c>
@@ -2235,7 +2219,7 @@
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
         <v>127</v>
@@ -2253,7 +2237,7 @@
         <v>93</v>
       </c>
       <c r="Q18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R18">
         <v>4</v>
@@ -2268,6 +2252,7 @@
         <v>200</v>
       </c>
       <c r="AC18"/>
+      <c r="AE18" s="4"/>
       <c r="AG18" t="s">
         <v>92</v>
       </c>
@@ -2275,7 +2260,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>95</v>
       </c>
@@ -2292,7 +2277,7 @@
         <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
         <v>127</v>
@@ -2310,7 +2295,7 @@
         <v>56</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R19">
         <v>5</v>
@@ -2324,6 +2309,7 @@
       <c r="U19">
         <v>10</v>
       </c>
+      <c r="AE19" s="4"/>
       <c r="AG19" t="s">
         <v>59</v>
       </c>
@@ -2331,7 +2317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -2348,7 +2334,7 @@
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
         <v>127</v>
@@ -2390,7 +2376,7 @@
         <v>39</v>
       </c>
       <c r="AC20"/>
-      <c r="AE20" t="s">
+      <c r="AE20" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF20" t="s">
@@ -2403,7 +2389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>99</v>
       </c>
@@ -2420,7 +2406,7 @@
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J21" t="s">
         <v>127</v>
@@ -2462,9 +2448,7 @@
         <v>46</v>
       </c>
       <c r="AC21"/>
-      <c r="AE21" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="AE21" s="4"/>
       <c r="AG21" t="s">
         <v>46</v>
       </c>
@@ -2472,7 +2456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>99</v>
       </c>
@@ -2489,7 +2473,7 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J22" t="s">
         <v>127</v>
@@ -2527,11 +2511,12 @@
       <c r="AA22" t="s">
         <v>90</v>
       </c>
-      <c r="AB22" s="4" t="s">
+      <c r="AC22"/>
+      <c r="AE22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AC22" t="s">
-        <v>101</v>
+      <c r="AF22" t="s">
+        <v>99</v>
       </c>
       <c r="AG22" t="s">
         <v>49</v>
@@ -2540,7 +2525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>99</v>
       </c>
@@ -2557,7 +2542,7 @@
         <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J23" t="s">
         <v>127</v>
@@ -2575,7 +2560,7 @@
         <v>56</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R23">
         <v>4</v>
@@ -2590,6 +2575,7 @@
         <v>10</v>
       </c>
       <c r="AC23"/>
+      <c r="AE23" s="4"/>
       <c r="AG23" t="s">
         <v>59</v>
       </c>
@@ -2597,7 +2583,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>103</v>
       </c>
@@ -2614,7 +2600,7 @@
         <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J24" t="s">
         <v>127</v>
@@ -2656,7 +2642,7 @@
         <v>39</v>
       </c>
       <c r="AC24"/>
-      <c r="AE24" t="s">
+      <c r="AE24" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF24" t="s">
@@ -2669,7 +2655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>103</v>
       </c>
@@ -2686,7 +2672,7 @@
         <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J25" t="s">
         <v>127</v>
@@ -2728,9 +2714,7 @@
         <v>46</v>
       </c>
       <c r="AC25"/>
-      <c r="AE25" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="AE25" s="4"/>
       <c r="AG25" t="s">
         <v>46</v>
       </c>
@@ -2738,7 +2722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>103</v>
       </c>
@@ -2755,7 +2739,7 @@
         <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J26" t="s">
         <v>127</v>
@@ -2793,11 +2777,12 @@
       <c r="AA26" t="s">
         <v>90</v>
       </c>
-      <c r="AB26" s="4" t="s">
+      <c r="AC26"/>
+      <c r="AE26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AC26" t="s">
-        <v>105</v>
+      <c r="AF26" t="s">
+        <v>103</v>
       </c>
       <c r="AG26" t="s">
         <v>49</v>
@@ -2806,7 +2791,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>103</v>
       </c>
@@ -2823,7 +2808,7 @@
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J27" t="s">
         <v>127</v>
@@ -2841,7 +2826,7 @@
         <v>56</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R27">
         <v>4</v>
@@ -2856,6 +2841,7 @@
         <v>10</v>
       </c>
       <c r="AC27"/>
+      <c r="AE27" s="4"/>
       <c r="AG27" t="s">
         <v>59</v>
       </c>
@@ -2863,7 +2849,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>107</v>
       </c>
@@ -2880,7 +2866,7 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J28" t="s">
         <v>127</v>
@@ -2922,7 +2908,7 @@
         <v>39</v>
       </c>
       <c r="AC28"/>
-      <c r="AE28" t="s">
+      <c r="AE28" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF28" t="s">
@@ -2935,7 +2921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>107</v>
       </c>
@@ -2952,7 +2938,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J29" t="s">
         <v>127</v>
@@ -2994,9 +2980,7 @@
         <v>46</v>
       </c>
       <c r="AC29"/>
-      <c r="AE29" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="AE29" s="4"/>
       <c r="AG29" t="s">
         <v>46</v>
       </c>
@@ -3004,7 +2988,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>107</v>
       </c>
@@ -3021,7 +3005,7 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J30" t="s">
         <v>127</v>
@@ -3059,11 +3043,12 @@
       <c r="AA30" t="s">
         <v>90</v>
       </c>
-      <c r="AB30" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>109</v>
+      <c r="AC30"/>
+      <c r="AE30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>107</v>
       </c>
       <c r="AG30" t="s">
         <v>49</v>
@@ -3072,7 +3057,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>107</v>
       </c>
@@ -3089,7 +3074,7 @@
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J31" t="s">
         <v>127</v>
@@ -3107,7 +3092,7 @@
         <v>56</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R31">
         <v>4</v>
@@ -3122,6 +3107,7 @@
         <v>10</v>
       </c>
       <c r="AC31"/>
+      <c r="AE31" s="4"/>
       <c r="AG31" t="s">
         <v>59</v>
       </c>
@@ -3129,7 +3115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>111</v>
       </c>
@@ -3146,7 +3132,7 @@
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J32" t="s">
         <v>127</v>
@@ -3188,7 +3174,7 @@
         <v>39</v>
       </c>
       <c r="AC32"/>
-      <c r="AE32" t="s">
+      <c r="AE32" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF32" t="s">
@@ -3201,7 +3187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>111</v>
       </c>
@@ -3218,7 +3204,7 @@
         <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J33" t="s">
         <v>127</v>
@@ -3260,9 +3246,7 @@
         <v>46</v>
       </c>
       <c r="AC33"/>
-      <c r="AE33" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="AE33" s="4"/>
       <c r="AG33" t="s">
         <v>46</v>
       </c>
@@ -3270,7 +3254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>111</v>
       </c>
@@ -3287,7 +3271,7 @@
         <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J34" t="s">
         <v>127</v>
@@ -3325,11 +3309,12 @@
       <c r="AA34" t="s">
         <v>90</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34"/>
+      <c r="AE34" t="s">
         <v>114</v>
       </c>
-      <c r="AC34" t="s">
-        <v>113</v>
+      <c r="AF34" t="s">
+        <v>111</v>
       </c>
       <c r="AG34" t="s">
         <v>49</v>
@@ -3338,7 +3323,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>111</v>
       </c>
@@ -3355,7 +3340,7 @@
         <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J35" t="s">
         <v>127</v>
@@ -3373,7 +3358,7 @@
         <v>56</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R35">
         <v>4</v>
@@ -3388,6 +3373,7 @@
         <v>10</v>
       </c>
       <c r="AC35"/>
+      <c r="AE35" s="4"/>
       <c r="AG35" t="s">
         <v>59</v>
       </c>
@@ -3395,7 +3381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>115</v>
       </c>
@@ -3412,7 +3398,7 @@
         <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J36" t="s">
         <v>127</v>
@@ -3454,7 +3440,7 @@
         <v>39</v>
       </c>
       <c r="AC36"/>
-      <c r="AE36" t="s">
+      <c r="AE36" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF36" t="s">
@@ -3467,7 +3453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>115</v>
       </c>
@@ -3484,7 +3470,7 @@
         <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J37" t="s">
         <v>127</v>
@@ -3526,9 +3512,7 @@
         <v>46</v>
       </c>
       <c r="AC37"/>
-      <c r="AE37" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="AE37" s="4"/>
       <c r="AG37" t="s">
         <v>46</v>
       </c>
@@ -3536,7 +3520,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>115</v>
       </c>
@@ -3553,7 +3537,7 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J38" t="s">
         <v>127</v>
@@ -3591,11 +3575,12 @@
       <c r="AA38" t="s">
         <v>90</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AC38"/>
+      <c r="AE38" t="s">
         <v>118</v>
       </c>
-      <c r="AC38" t="s">
-        <v>117</v>
+      <c r="AF38" t="s">
+        <v>115</v>
       </c>
       <c r="AG38" t="s">
         <v>49</v>
@@ -3604,7 +3589,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>115</v>
       </c>
@@ -3621,7 +3606,7 @@
         <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J39" t="s">
         <v>127</v>
@@ -3639,7 +3624,7 @@
         <v>56</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R39">
         <v>4</v>
@@ -3654,6 +3639,7 @@
         <v>10</v>
       </c>
       <c r="AC39"/>
+      <c r="AE39" s="4"/>
       <c r="AG39" t="s">
         <v>59</v>
       </c>
@@ -3661,12 +3647,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
         <v>35</v>
@@ -3678,13 +3664,13 @@
         <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J40" t="s">
         <v>127</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M40" t="s">
         <v>39</v>
@@ -3720,7 +3706,7 @@
         <v>39</v>
       </c>
       <c r="AC40"/>
-      <c r="AE40" t="s">
+      <c r="AE40" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF40" t="s">
@@ -3733,12 +3719,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
         <v>35</v>
@@ -3750,13 +3736,13 @@
         <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J41" t="s">
         <v>127</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M41" t="s">
         <v>46</v>
@@ -3792,9 +3778,7 @@
         <v>46</v>
       </c>
       <c r="AC41"/>
-      <c r="AE41" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="AE41" s="4"/>
       <c r="AG41" t="s">
         <v>46</v>
       </c>
@@ -3802,12 +3786,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
@@ -3819,13 +3803,13 @@
         <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J42" t="s">
         <v>127</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M42" t="s">
         <v>49</v>
@@ -3857,12 +3841,13 @@
       <c r="AA42" t="s">
         <v>90</v>
       </c>
-      <c r="AB42" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC42" t="s">
+      <c r="AC42"/>
+      <c r="AE42" t="s">
         <v>151</v>
       </c>
+      <c r="AF42" t="s">
+        <v>192</v>
+      </c>
       <c r="AG42" t="s">
         <v>49</v>
       </c>
@@ -3870,12 +3855,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
         <v>35</v>
@@ -3887,13 +3872,13 @@
         <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J43" t="s">
         <v>127</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M43" t="s">
         <v>55</v>
@@ -3905,7 +3890,7 @@
         <v>56</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R43">
         <v>4</v>
@@ -3920,6 +3905,7 @@
         <v>10</v>
       </c>
       <c r="AC43"/>
+      <c r="AE43" s="4"/>
       <c r="AG43" t="s">
         <v>59</v>
       </c>
@@ -3927,7 +3913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>119</v>
       </c>
@@ -3944,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J44" t="s">
         <v>127</v>
@@ -3986,7 +3972,7 @@
         <v>39</v>
       </c>
       <c r="AC44"/>
-      <c r="AE44" t="s">
+      <c r="AE44" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF44" t="s">
@@ -3999,7 +3985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>119</v>
       </c>
@@ -4016,7 +4002,7 @@
         <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J45" t="s">
         <v>127</v>
@@ -4058,9 +4044,7 @@
         <v>46</v>
       </c>
       <c r="AC45"/>
-      <c r="AE45" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="AE45" s="4"/>
       <c r="AG45" t="s">
         <v>46</v>
       </c>
@@ -4068,7 +4052,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>119</v>
       </c>
@@ -4085,7 +4069,7 @@
         <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J46" t="s">
         <v>127</v>
@@ -4123,11 +4107,12 @@
       <c r="AA46" t="s">
         <v>90</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AC46"/>
+      <c r="AE46" t="s">
         <v>122</v>
       </c>
-      <c r="AC46" t="s">
-        <v>121</v>
+      <c r="AF46" t="s">
+        <v>119</v>
       </c>
       <c r="AG46" t="s">
         <v>49</v>
@@ -4136,7 +4121,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>119</v>
       </c>
@@ -4153,7 +4138,7 @@
         <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J47" t="s">
         <v>127</v>
@@ -4171,7 +4156,7 @@
         <v>56</v>
       </c>
       <c r="P47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R47">
         <v>4</v>
@@ -4186,6 +4171,7 @@
         <v>10</v>
       </c>
       <c r="AC47"/>
+      <c r="AE47" s="4"/>
       <c r="AG47" t="s">
         <v>59</v>
       </c>
@@ -4193,7 +4179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>123</v>
       </c>
@@ -4210,7 +4196,7 @@
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J48" t="s">
         <v>127</v>
@@ -4252,7 +4238,7 @@
         <v>39</v>
       </c>
       <c r="AC48"/>
-      <c r="AE48" t="s">
+      <c r="AE48" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF48" t="s">
@@ -4265,7 +4251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>123</v>
       </c>
@@ -4282,7 +4268,7 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J49" t="s">
         <v>127</v>
@@ -4324,9 +4310,7 @@
         <v>46</v>
       </c>
       <c r="AC49"/>
-      <c r="AE49" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="AE49" s="4"/>
       <c r="AG49" t="s">
         <v>46</v>
       </c>
@@ -4334,7 +4318,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>123</v>
       </c>
@@ -4351,7 +4335,7 @@
         <v>37</v>
       </c>
       <c r="H50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J50" t="s">
         <v>127</v>
@@ -4389,11 +4373,12 @@
       <c r="AA50" t="s">
         <v>90</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AC50"/>
+      <c r="AE50" t="s">
         <v>126</v>
       </c>
-      <c r="AC50" t="s">
-        <v>125</v>
+      <c r="AF50" t="s">
+        <v>123</v>
       </c>
       <c r="AG50" t="s">
         <v>49</v>
@@ -4402,7 +4387,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>123</v>
       </c>
@@ -4419,7 +4404,7 @@
         <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J51" t="s">
         <v>127</v>
@@ -4437,7 +4422,7 @@
         <v>56</v>
       </c>
       <c r="P51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R51">
         <v>4</v>
@@ -4452,6 +4437,7 @@
         <v>10</v>
       </c>
       <c r="AC51"/>
+      <c r="AE51" s="4"/>
       <c r="AG51" t="s">
         <v>59</v>
       </c>
@@ -4459,7 +4445,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>80</v>
       </c>
@@ -4476,7 +4462,7 @@
         <v>37</v>
       </c>
       <c r="H52" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J52" t="s">
         <v>130</v>
@@ -4517,7 +4503,7 @@
       <c r="AA52" t="s">
         <v>39</v>
       </c>
-      <c r="AE52" t="s">
+      <c r="AE52" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF52" t="s">
@@ -4530,7 +4516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>80</v>
       </c>
@@ -4547,7 +4533,7 @@
         <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J53" t="s">
         <v>130</v>
@@ -4588,9 +4574,7 @@
       <c r="AA53" t="s">
         <v>46</v>
       </c>
-      <c r="AE53" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="AE53" s="4"/>
       <c r="AG53" t="s">
         <v>46</v>
       </c>
@@ -4598,7 +4582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>80</v>
       </c>
@@ -4615,7 +4599,7 @@
         <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J54" t="s">
         <v>130</v>
@@ -4633,7 +4617,7 @@
         <v>50</v>
       </c>
       <c r="P54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R54">
         <v>3</v>
@@ -4653,7 +4637,6 @@
       <c r="AA54" t="s">
         <v>90</v>
       </c>
-      <c r="AB54"/>
       <c r="AE54" t="s">
         <v>91</v>
       </c>
@@ -4667,7 +4650,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>80</v>
       </c>
@@ -4684,7 +4667,7 @@
         <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J55" t="s">
         <v>130</v>
@@ -4716,6 +4699,7 @@
       <c r="U55">
         <v>200</v>
       </c>
+      <c r="AE55" s="4"/>
       <c r="AG55" t="s">
         <v>92</v>
       </c>
@@ -4723,7 +4707,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>80</v>
       </c>
@@ -4740,7 +4724,7 @@
         <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J56" t="s">
         <v>130</v>
@@ -4758,7 +4742,7 @@
         <v>56</v>
       </c>
       <c r="P56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R56">
         <v>5</v>
@@ -4772,6 +4756,7 @@
       <c r="U56">
         <v>10</v>
       </c>
+      <c r="AE56" s="4"/>
       <c r="AG56" t="s">
         <v>59</v>
       </c>
@@ -4779,7 +4764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>95</v>
       </c>
@@ -4796,7 +4781,7 @@
         <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J57" t="s">
         <v>130</v>
@@ -4838,7 +4823,7 @@
         <v>39</v>
       </c>
       <c r="AC57"/>
-      <c r="AE57" t="s">
+      <c r="AE57" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF57" t="s">
@@ -4851,7 +4836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>95</v>
       </c>
@@ -4868,7 +4853,7 @@
         <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J58" t="s">
         <v>130</v>
@@ -4910,9 +4895,7 @@
         <v>46</v>
       </c>
       <c r="AC58"/>
-      <c r="AE58" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="AE58" s="4"/>
       <c r="AG58" t="s">
         <v>46</v>
       </c>
@@ -4920,7 +4903,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>95</v>
       </c>
@@ -4937,7 +4920,7 @@
         <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J59" t="s">
         <v>130</v>
@@ -4955,7 +4938,7 @@
         <v>50</v>
       </c>
       <c r="P59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R59">
         <v>3</v>
@@ -4975,11 +4958,12 @@
       <c r="AA59" t="s">
         <v>90</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AC59"/>
+      <c r="AE59" t="s">
         <v>98</v>
       </c>
-      <c r="AC59" t="s">
-        <v>159</v>
+      <c r="AF59" t="s">
+        <v>95</v>
       </c>
       <c r="AG59" t="s">
         <v>49</v>
@@ -4988,7 +4972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>95</v>
       </c>
@@ -5005,7 +4989,7 @@
         <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J60" t="s">
         <v>130</v>
@@ -5023,7 +5007,7 @@
         <v>93</v>
       </c>
       <c r="Q60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R60">
         <v>4</v>
@@ -5038,6 +5022,7 @@
         <v>200</v>
       </c>
       <c r="AC60"/>
+      <c r="AE60" s="4"/>
       <c r="AG60" t="s">
         <v>92</v>
       </c>
@@ -5045,7 +5030,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>95</v>
       </c>
@@ -5062,7 +5047,7 @@
         <v>37</v>
       </c>
       <c r="H61" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J61" t="s">
         <v>130</v>
@@ -5080,7 +5065,7 @@
         <v>56</v>
       </c>
       <c r="P61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R61">
         <v>5</v>
@@ -5095,6 +5080,7 @@
         <v>10</v>
       </c>
       <c r="AC61"/>
+      <c r="AE61" s="4"/>
       <c r="AG61" t="s">
         <v>59</v>
       </c>
@@ -5102,7 +5088,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>99</v>
       </c>
@@ -5119,7 +5105,7 @@
         <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J62" t="s">
         <v>130</v>
@@ -5161,7 +5147,7 @@
         <v>39</v>
       </c>
       <c r="AC62"/>
-      <c r="AE62" t="s">
+      <c r="AE62" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF62" t="s">
@@ -5174,7 +5160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>99</v>
       </c>
@@ -5191,7 +5177,7 @@
         <v>37</v>
       </c>
       <c r="H63" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J63" t="s">
         <v>130</v>
@@ -5233,9 +5219,7 @@
         <v>46</v>
       </c>
       <c r="AC63"/>
-      <c r="AE63" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="AE63" s="4"/>
       <c r="AG63" t="s">
         <v>46</v>
       </c>
@@ -5243,7 +5227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>99</v>
       </c>
@@ -5260,7 +5244,7 @@
         <v>37</v>
       </c>
       <c r="H64" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J64" t="s">
         <v>130</v>
@@ -5278,7 +5262,7 @@
         <v>50</v>
       </c>
       <c r="P64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R64">
         <v>3</v>
@@ -5298,11 +5282,12 @@
       <c r="AA64" t="s">
         <v>90</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AC64"/>
+      <c r="AE64" t="s">
         <v>102</v>
       </c>
-      <c r="AC64" t="s">
-        <v>101</v>
+      <c r="AF64" t="s">
+        <v>99</v>
       </c>
       <c r="AG64" t="s">
         <v>49</v>
@@ -5311,7 +5296,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>99</v>
       </c>
@@ -5328,7 +5313,7 @@
         <v>37</v>
       </c>
       <c r="H65" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J65" t="s">
         <v>130</v>
@@ -5346,7 +5331,7 @@
         <v>56</v>
       </c>
       <c r="P65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R65">
         <v>4</v>
@@ -5361,6 +5346,7 @@
         <v>10</v>
       </c>
       <c r="AC65"/>
+      <c r="AE65" s="4"/>
       <c r="AG65" t="s">
         <v>59</v>
       </c>
@@ -5368,7 +5354,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>107</v>
       </c>
@@ -5385,7 +5371,7 @@
         <v>37</v>
       </c>
       <c r="H66" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J66" t="s">
         <v>130</v>
@@ -5427,7 +5413,7 @@
         <v>39</v>
       </c>
       <c r="AC66"/>
-      <c r="AE66" t="s">
+      <c r="AE66" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF66" t="s">
@@ -5440,7 +5426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>107</v>
       </c>
@@ -5457,7 +5443,7 @@
         <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J67" t="s">
         <v>130</v>
@@ -5499,9 +5485,7 @@
         <v>46</v>
       </c>
       <c r="AC67"/>
-      <c r="AE67" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="AE67" s="4"/>
       <c r="AG67" t="s">
         <v>46</v>
       </c>
@@ -5509,7 +5493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>107</v>
       </c>
@@ -5526,7 +5510,7 @@
         <v>37</v>
       </c>
       <c r="H68" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J68" t="s">
         <v>130</v>
@@ -5544,7 +5528,7 @@
         <v>50</v>
       </c>
       <c r="P68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R68">
         <v>3</v>
@@ -5564,11 +5548,12 @@
       <c r="AA68" t="s">
         <v>90</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AC68"/>
+      <c r="AE68" t="s">
         <v>110</v>
       </c>
-      <c r="AC68" t="s">
-        <v>109</v>
+      <c r="AF68" t="s">
+        <v>107</v>
       </c>
       <c r="AG68" t="s">
         <v>49</v>
@@ -5577,7 +5562,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>107</v>
       </c>
@@ -5594,7 +5579,7 @@
         <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J69" t="s">
         <v>130</v>
@@ -5612,7 +5597,7 @@
         <v>56</v>
       </c>
       <c r="P69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R69">
         <v>4</v>
@@ -5627,6 +5612,7 @@
         <v>10</v>
       </c>
       <c r="AC69"/>
+      <c r="AE69" s="4"/>
       <c r="AG69" t="s">
         <v>59</v>
       </c>
@@ -5634,7 +5620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>111</v>
       </c>
@@ -5651,7 +5637,7 @@
         <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J70" t="s">
         <v>130</v>
@@ -5693,7 +5679,7 @@
         <v>39</v>
       </c>
       <c r="AC70"/>
-      <c r="AE70" t="s">
+      <c r="AE70" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF70" t="s">
@@ -5706,7 +5692,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>111</v>
       </c>
@@ -5723,7 +5709,7 @@
         <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J71" t="s">
         <v>130</v>
@@ -5765,9 +5751,7 @@
         <v>46</v>
       </c>
       <c r="AC71"/>
-      <c r="AE71" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="AE71" s="4"/>
       <c r="AG71" t="s">
         <v>46</v>
       </c>
@@ -5775,7 +5759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>111</v>
       </c>
@@ -5792,7 +5776,7 @@
         <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J72" t="s">
         <v>130</v>
@@ -5810,7 +5794,7 @@
         <v>50</v>
       </c>
       <c r="P72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R72">
         <v>3</v>
@@ -5830,11 +5814,12 @@
       <c r="AA72" t="s">
         <v>90</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AC72"/>
+      <c r="AE72" t="s">
         <v>114</v>
       </c>
-      <c r="AC72" t="s">
-        <v>113</v>
+      <c r="AF72" t="s">
+        <v>111</v>
       </c>
       <c r="AG72" t="s">
         <v>49</v>
@@ -5843,7 +5828,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>111</v>
       </c>
@@ -5860,7 +5845,7 @@
         <v>37</v>
       </c>
       <c r="H73" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J73" t="s">
         <v>130</v>
@@ -5878,7 +5863,7 @@
         <v>56</v>
       </c>
       <c r="P73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R73">
         <v>4</v>
@@ -5893,6 +5878,7 @@
         <v>10</v>
       </c>
       <c r="AC73"/>
+      <c r="AE73" s="4"/>
       <c r="AG73" t="s">
         <v>59</v>
       </c>
@@ -5900,7 +5886,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>115</v>
       </c>
@@ -5917,7 +5903,7 @@
         <v>37</v>
       </c>
       <c r="H74" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J74" t="s">
         <v>130</v>
@@ -5959,7 +5945,7 @@
         <v>39</v>
       </c>
       <c r="AC74"/>
-      <c r="AE74" t="s">
+      <c r="AE74" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF74" t="s">
@@ -5972,7 +5958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>115</v>
       </c>
@@ -5989,7 +5975,7 @@
         <v>37</v>
       </c>
       <c r="H75" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J75" t="s">
         <v>130</v>
@@ -6031,9 +6017,7 @@
         <v>46</v>
       </c>
       <c r="AC75"/>
-      <c r="AE75" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="AE75" s="4"/>
       <c r="AG75" t="s">
         <v>46</v>
       </c>
@@ -6041,7 +6025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>115</v>
       </c>
@@ -6058,7 +6042,7 @@
         <v>37</v>
       </c>
       <c r="H76" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J76" t="s">
         <v>130</v>
@@ -6076,7 +6060,7 @@
         <v>50</v>
       </c>
       <c r="P76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R76">
         <v>3</v>
@@ -6096,11 +6080,12 @@
       <c r="AA76" t="s">
         <v>90</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AC76"/>
+      <c r="AE76" t="s">
         <v>118</v>
       </c>
-      <c r="AC76" t="s">
-        <v>117</v>
+      <c r="AF76" t="s">
+        <v>115</v>
       </c>
       <c r="AG76" t="s">
         <v>49</v>
@@ -6109,7 +6094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>115</v>
       </c>
@@ -6126,7 +6111,7 @@
         <v>37</v>
       </c>
       <c r="H77" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J77" t="s">
         <v>130</v>
@@ -6144,7 +6129,7 @@
         <v>56</v>
       </c>
       <c r="P77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R77">
         <v>4</v>
@@ -6159,6 +6144,7 @@
         <v>10</v>
       </c>
       <c r="AC77"/>
+      <c r="AE77" s="4"/>
       <c r="AG77" t="s">
         <v>59</v>
       </c>
@@ -6166,12 +6152,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D78" t="s">
         <v>35</v>
@@ -6183,13 +6169,13 @@
         <v>37</v>
       </c>
       <c r="H78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J78" t="s">
         <v>130</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M78" t="s">
         <v>39</v>
@@ -6225,10 +6211,10 @@
         <v>39</v>
       </c>
       <c r="AC78"/>
-      <c r="AE78" t="s">
+      <c r="AE78" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AF78" s="7" t="s">
+      <c r="AF78" t="s">
         <v>84</v>
       </c>
       <c r="AG78" t="s">
@@ -6238,12 +6224,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>123</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D79" t="s">
         <v>35</v>
@@ -6255,13 +6241,13 @@
         <v>37</v>
       </c>
       <c r="H79" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J79" t="s">
         <v>130</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M79" t="s">
         <v>46</v>
@@ -6297,9 +6283,7 @@
         <v>46</v>
       </c>
       <c r="AC79"/>
-      <c r="AE79" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="AE79" s="4"/>
       <c r="AG79" t="s">
         <v>46</v>
       </c>
@@ -6307,12 +6291,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>123</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D80" t="s">
         <v>35</v>
@@ -6324,13 +6308,13 @@
         <v>37</v>
       </c>
       <c r="H80" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J80" t="s">
         <v>130</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M80" t="s">
         <v>49</v>
@@ -6342,7 +6326,7 @@
         <v>50</v>
       </c>
       <c r="P80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R80">
         <v>3</v>
@@ -6362,12 +6346,13 @@
       <c r="AA80" t="s">
         <v>90</v>
       </c>
-      <c r="AB80" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC80" t="s">
+      <c r="AC80"/>
+      <c r="AE80" t="s">
         <v>151</v>
       </c>
+      <c r="AF80" t="s">
+        <v>192</v>
+      </c>
       <c r="AG80" t="s">
         <v>49</v>
       </c>
@@ -6375,12 +6360,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>123</v>
       </c>
       <c r="C81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D81" t="s">
         <v>35</v>
@@ -6392,13 +6377,13 @@
         <v>37</v>
       </c>
       <c r="H81" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J81" t="s">
         <v>130</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M81" t="s">
         <v>55</v>
@@ -6410,7 +6395,7 @@
         <v>56</v>
       </c>
       <c r="P81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R81">
         <v>4</v>
@@ -6425,6 +6410,7 @@
         <v>10</v>
       </c>
       <c r="AC81"/>
+      <c r="AE81" s="4"/>
       <c r="AG81" t="s">
         <v>59</v>
       </c>
@@ -6432,7 +6418,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>119</v>
       </c>
@@ -6449,7 +6435,7 @@
         <v>37</v>
       </c>
       <c r="H82" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J82" t="s">
         <v>130</v>
@@ -6491,7 +6477,7 @@
         <v>39</v>
       </c>
       <c r="AC82"/>
-      <c r="AE82" t="s">
+      <c r="AE82" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF82" t="s">
@@ -6504,7 +6490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>119</v>
       </c>
@@ -6521,7 +6507,7 @@
         <v>37</v>
       </c>
       <c r="H83" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J83" t="s">
         <v>130</v>
@@ -6563,9 +6549,7 @@
         <v>46</v>
       </c>
       <c r="AC83"/>
-      <c r="AE83" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="AE83" s="4"/>
       <c r="AG83" t="s">
         <v>46</v>
       </c>
@@ -6573,7 +6557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>119</v>
       </c>
@@ -6590,7 +6574,7 @@
         <v>37</v>
       </c>
       <c r="H84" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J84" t="s">
         <v>130</v>
@@ -6608,7 +6592,7 @@
         <v>50</v>
       </c>
       <c r="P84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R84">
         <v>3</v>
@@ -6628,11 +6612,12 @@
       <c r="AA84" t="s">
         <v>90</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AC84"/>
+      <c r="AE84" t="s">
         <v>122</v>
       </c>
-      <c r="AC84" t="s">
-        <v>121</v>
+      <c r="AF84" t="s">
+        <v>119</v>
       </c>
       <c r="AG84" t="s">
         <v>49</v>
@@ -6641,7 +6626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>119</v>
       </c>
@@ -6658,7 +6643,7 @@
         <v>37</v>
       </c>
       <c r="H85" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J85" t="s">
         <v>130</v>
@@ -6676,7 +6661,7 @@
         <v>56</v>
       </c>
       <c r="P85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R85">
         <v>4</v>
@@ -6691,6 +6676,7 @@
         <v>10</v>
       </c>
       <c r="AC85"/>
+      <c r="AE85" s="4"/>
       <c r="AG85" t="s">
         <v>59</v>
       </c>
@@ -6698,7 +6684,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>123</v>
       </c>
@@ -6715,7 +6701,7 @@
         <v>37</v>
       </c>
       <c r="H86" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J86" t="s">
         <v>130</v>
@@ -6757,7 +6743,7 @@
         <v>39</v>
       </c>
       <c r="AC86"/>
-      <c r="AE86" t="s">
+      <c r="AE86" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF86" t="s">
@@ -6770,7 +6756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>123</v>
       </c>
@@ -6787,7 +6773,7 @@
         <v>37</v>
       </c>
       <c r="H87" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J87" t="s">
         <v>130</v>
@@ -6829,9 +6815,7 @@
         <v>46</v>
       </c>
       <c r="AC87"/>
-      <c r="AE87" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="AE87" s="4"/>
       <c r="AG87" t="s">
         <v>46</v>
       </c>
@@ -6839,7 +6823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>123</v>
       </c>
@@ -6856,7 +6840,7 @@
         <v>37</v>
       </c>
       <c r="H88" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J88" t="s">
         <v>130</v>
@@ -6874,7 +6858,7 @@
         <v>50</v>
       </c>
       <c r="P88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R88">
         <v>3</v>
@@ -6894,11 +6878,12 @@
       <c r="AA88" t="s">
         <v>90</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AC88"/>
+      <c r="AE88" t="s">
         <v>126</v>
       </c>
-      <c r="AC88" t="s">
-        <v>160</v>
+      <c r="AF88" t="s">
+        <v>123</v>
       </c>
       <c r="AG88" t="s">
         <v>49</v>
@@ -6907,7 +6892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>123</v>
       </c>
@@ -6924,7 +6909,7 @@
         <v>37</v>
       </c>
       <c r="H89" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J89" t="s">
         <v>130</v>
@@ -6942,7 +6927,7 @@
         <v>56</v>
       </c>
       <c r="P89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R89">
         <v>4</v>
@@ -6957,6 +6942,7 @@
         <v>10</v>
       </c>
       <c r="AC89"/>
+      <c r="AE89" s="4"/>
       <c r="AG89" t="s">
         <v>59</v>
       </c>
@@ -6964,7 +6950,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>33</v>
       </c>
@@ -6984,7 +6970,7 @@
         <v>34</v>
       </c>
       <c r="J90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L90" t="s">
         <v>38</v>
@@ -7022,7 +7008,6 @@
       <c r="AA90" t="s">
         <v>39</v>
       </c>
-      <c r="AB90"/>
       <c r="AC90"/>
       <c r="AE90" t="s">
         <v>44</v>
@@ -7037,7 +7022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>33</v>
       </c>
@@ -7057,7 +7042,7 @@
         <v>34</v>
       </c>
       <c r="J91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L91" t="s">
         <v>38</v>
@@ -7089,7 +7074,6 @@
       <c r="W91" t="s">
         <v>41</v>
       </c>
-      <c r="AB91"/>
       <c r="AC91"/>
       <c r="AG91" t="s">
         <v>46</v>
@@ -7098,7 +7082,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>33</v>
       </c>
@@ -7118,7 +7102,7 @@
         <v>34</v>
       </c>
       <c r="J92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L92" t="s">
         <v>38</v>
@@ -7156,7 +7140,6 @@
       <c r="AA92" t="s">
         <v>53</v>
       </c>
-      <c r="AB92"/>
       <c r="AC92"/>
       <c r="AE92" t="s">
         <v>54</v>
@@ -7171,7 +7154,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>33</v>
       </c>
@@ -7191,7 +7174,7 @@
         <v>34</v>
       </c>
       <c r="J93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L93" t="s">
         <v>38</v>
@@ -7220,7 +7203,6 @@
       <c r="U93">
         <v>10</v>
       </c>
-      <c r="AB93"/>
       <c r="AC93"/>
       <c r="AG93" t="s">
         <v>59</v>
@@ -7229,7 +7211,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>33</v>
       </c>
@@ -7246,7 +7228,7 @@
         <v>37</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J94" t="s">
         <v>129</v>
@@ -7287,9 +7269,8 @@
       <c r="AA94" t="s">
         <v>39</v>
       </c>
-      <c r="AB94"/>
       <c r="AC94"/>
-      <c r="AE94" s="5" t="s">
+      <c r="AE94" t="s">
         <v>44</v>
       </c>
       <c r="AF94" t="s">
@@ -7302,7 +7283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>33</v>
       </c>
@@ -7319,7 +7300,7 @@
         <v>37</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J95" t="s">
         <v>129</v>
@@ -7354,7 +7335,6 @@
       <c r="W95" t="s">
         <v>41</v>
       </c>
-      <c r="AB95"/>
       <c r="AC95"/>
       <c r="AG95" t="s">
         <v>46</v>
@@ -7363,7 +7343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>33</v>
       </c>
@@ -7380,7 +7360,7 @@
         <v>37</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J96" t="s">
         <v>129</v>
@@ -7421,12 +7401,11 @@
       <c r="AA96" t="s">
         <v>53</v>
       </c>
-      <c r="AB96"/>
       <c r="AC96"/>
-      <c r="AE96" s="5" t="s">
+      <c r="AE96" t="s">
         <v>54</v>
       </c>
-      <c r="AF96" s="5" t="s">
+      <c r="AF96" t="s">
         <v>33</v>
       </c>
       <c r="AG96" t="s">
@@ -7436,7 +7415,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>33</v>
       </c>
@@ -7453,7 +7432,7 @@
         <v>37</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J97" t="s">
         <v>129</v>
@@ -7471,7 +7450,7 @@
         <v>56</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="R97">
         <v>4</v>
@@ -7485,7 +7464,6 @@
       <c r="U97">
         <v>10</v>
       </c>
-      <c r="AB97"/>
       <c r="AC97"/>
       <c r="AG97" t="s">
         <v>59</v>
@@ -7494,7 +7472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>60</v>
       </c>
@@ -7552,12 +7530,11 @@
       <c r="AA98" t="s">
         <v>39</v>
       </c>
-      <c r="AB98"/>
       <c r="AC98"/>
-      <c r="AE98" s="5" t="s">
+      <c r="AE98" t="s">
         <v>44</v>
       </c>
-      <c r="AF98" s="5" t="s">
+      <c r="AF98" t="s">
         <v>45</v>
       </c>
       <c r="AG98" t="s">
@@ -7567,7 +7544,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>60</v>
       </c>
@@ -7619,7 +7596,6 @@
       <c r="W99" t="s">
         <v>41</v>
       </c>
-      <c r="AB99"/>
       <c r="AC99"/>
       <c r="AG99" t="s">
         <v>46</v>
@@ -7628,7 +7604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>60</v>
       </c>
@@ -7683,12 +7659,11 @@
       <c r="AA100" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AB100"/>
       <c r="AC100"/>
-      <c r="AE100" s="5" t="s">
+      <c r="AE100" t="s">
         <v>64</v>
       </c>
-      <c r="AF100" s="5" t="s">
+      <c r="AF100" t="s">
         <v>60</v>
       </c>
       <c r="AG100" t="s">
@@ -7698,7 +7673,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>60</v>
       </c>
@@ -7747,7 +7722,6 @@
       <c r="U101">
         <v>10</v>
       </c>
-      <c r="AB101"/>
       <c r="AC101"/>
       <c r="AG101" t="s">
         <v>59</v>
@@ -7756,12 +7730,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>71</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D102" t="s">
         <v>35</v>
@@ -7773,13 +7747,13 @@
         <v>37</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M102" t="s">
         <v>39</v>
@@ -7814,12 +7788,11 @@
       <c r="AA102" t="s">
         <v>39</v>
       </c>
-      <c r="AB102"/>
       <c r="AC102"/>
-      <c r="AE102" s="5" t="s">
+      <c r="AE102" t="s">
         <v>74</v>
       </c>
-      <c r="AF102" s="5" t="s">
+      <c r="AF102" t="s">
         <v>75</v>
       </c>
       <c r="AG102" t="s">
@@ -7829,12 +7802,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>71</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D103" t="s">
         <v>35</v>
@@ -7846,13 +7819,13 @@
         <v>37</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M103" t="s">
         <v>46</v>
@@ -7881,7 +7854,6 @@
       <c r="W103" t="s">
         <v>41</v>
       </c>
-      <c r="AB103"/>
       <c r="AC103"/>
       <c r="AG103" t="s">
         <v>46</v>
@@ -7890,12 +7862,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>71</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D104" t="s">
         <v>35</v>
@@ -7907,13 +7879,13 @@
         <v>37</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M104" t="s">
         <v>49</v>
@@ -7945,14 +7917,13 @@
       <c r="AA104" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AB104"/>
       <c r="AC104"/>
-      <c r="AE104" s="5" t="s">
+      <c r="AE104" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF104" t="s">
         <v>156</v>
       </c>
-      <c r="AF104" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="AG104" t="s">
         <v>49</v>
       </c>
@@ -7960,12 +7931,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>71</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D105" t="s">
         <v>35</v>
@@ -7977,13 +7948,13 @@
         <v>37</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M105" t="s">
         <v>55</v>
@@ -7995,7 +7966,7 @@
         <v>56</v>
       </c>
       <c r="P105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R105">
         <v>4</v>
@@ -8009,7 +7980,6 @@
       <c r="U105">
         <v>10</v>
       </c>
-      <c r="AB105"/>
       <c r="AC105"/>
       <c r="AG105" t="s">
         <v>59</v>
@@ -8018,7 +7988,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>80</v>
       </c>
@@ -8035,10 +8005,10 @@
         <v>37</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>82</v>
@@ -8076,10 +8046,10 @@
       <c r="AA106" t="s">
         <v>39</v>
       </c>
-      <c r="AE106" s="5" t="s">
+      <c r="AE106" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AF106" s="5" t="s">
+      <c r="AF106" t="s">
         <v>84</v>
       </c>
       <c r="AG106" t="s">
@@ -8089,7 +8059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>80</v>
       </c>
@@ -8106,10 +8076,10 @@
         <v>37</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L107" s="5" t="s">
         <v>82</v>
@@ -8147,9 +8117,7 @@
       <c r="AA107" t="s">
         <v>46</v>
       </c>
-      <c r="AB107"/>
       <c r="AC107"/>
-      <c r="AE107" s="4"/>
       <c r="AG107" t="s">
         <v>46</v>
       </c>
@@ -8157,7 +8125,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>80</v>
       </c>
@@ -8174,10 +8142,10 @@
         <v>37</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L108" s="5" t="s">
         <v>82</v>
@@ -8192,7 +8160,7 @@
         <v>50</v>
       </c>
       <c r="P108" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="R108">
         <v>3</v>
@@ -8212,14 +8180,13 @@
       <c r="AA108" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AB108" s="5" t="s">
+      <c r="AC108" s="5"/>
+      <c r="AE108" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AC108" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE108" s="6"/>
-      <c r="AF108" s="5"/>
+      <c r="AF108" t="s">
+        <v>80</v>
+      </c>
       <c r="AG108" t="s">
         <v>49</v>
       </c>
@@ -8227,7 +8194,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>80</v>
       </c>
@@ -8244,10 +8211,10 @@
         <v>37</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L109" s="5" t="s">
         <v>82</v>
@@ -8276,9 +8243,7 @@
       <c r="U109">
         <v>200</v>
       </c>
-      <c r="AB109"/>
       <c r="AC109"/>
-      <c r="AE109" s="4"/>
       <c r="AG109" t="s">
         <v>92</v>
       </c>
@@ -8286,7 +8251,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>80</v>
       </c>
@@ -8303,10 +8268,10 @@
         <v>37</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L110" s="5" t="s">
         <v>82</v>
@@ -8321,7 +8286,7 @@
         <v>56</v>
       </c>
       <c r="P110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R110">
         <v>5</v>
@@ -8335,10 +8300,7 @@
       <c r="U110">
         <v>10</v>
       </c>
-      <c r="AB110"/>
       <c r="AC110"/>
-      <c r="AE110" s="6"/>
-      <c r="AF110" s="5"/>
       <c r="AG110" t="s">
         <v>59</v>
       </c>
@@ -8346,7 +8308,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>95</v>
       </c>
@@ -8363,10 +8325,10 @@
         <v>37</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>97</v>
@@ -8405,7 +8367,7 @@
         <v>39</v>
       </c>
       <c r="AC111"/>
-      <c r="AE111" t="s">
+      <c r="AE111" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF111" t="s">
@@ -8418,7 +8380,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>95</v>
       </c>
@@ -8435,10 +8397,10 @@
         <v>37</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J112" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>97</v>
@@ -8476,10 +8438,8 @@
       <c r="AA112" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AB112" s="6"/>
       <c r="AC112" s="5"/>
       <c r="AE112" s="6"/>
-      <c r="AF112" s="5"/>
       <c r="AG112" t="s">
         <v>46</v>
       </c>
@@ -8487,7 +8447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>95</v>
       </c>
@@ -8504,10 +8464,10 @@
         <v>37</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>97</v>
@@ -8522,7 +8482,7 @@
         <v>50</v>
       </c>
       <c r="P113" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="R113">
         <v>3</v>
@@ -8542,11 +8502,12 @@
       <c r="AA113" t="s">
         <v>90</v>
       </c>
-      <c r="AB113" s="4" t="s">
+      <c r="AC113"/>
+      <c r="AE113" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AC113" t="s">
-        <v>159</v>
+      <c r="AF113" t="s">
+        <v>95</v>
       </c>
       <c r="AG113" t="s">
         <v>49</v>
@@ -8555,7 +8516,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>95</v>
       </c>
@@ -8572,10 +8533,10 @@
         <v>37</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J114" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>97</v>
@@ -8590,7 +8551,7 @@
         <v>93</v>
       </c>
       <c r="Q114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R114">
         <v>4</v>
@@ -8605,6 +8566,7 @@
         <v>200</v>
       </c>
       <c r="AC114"/>
+      <c r="AE114" s="4"/>
       <c r="AG114" t="s">
         <v>92</v>
       </c>
@@ -8612,7 +8574,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>95</v>
       </c>
@@ -8629,10 +8591,10 @@
         <v>37</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J115" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>97</v>
@@ -8647,7 +8609,7 @@
         <v>56</v>
       </c>
       <c r="P115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R115">
         <v>5</v>
@@ -8661,6 +8623,7 @@
       <c r="U115">
         <v>10</v>
       </c>
+      <c r="AE115" s="4"/>
       <c r="AG115" t="s">
         <v>59</v>
       </c>
@@ -8668,12 +8631,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>123</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D116" t="s">
         <v>35</v>
@@ -8685,13 +8648,13 @@
         <v>37</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M116" t="s">
         <v>39</v>
@@ -8726,12 +8689,11 @@
       <c r="AA116" t="s">
         <v>39</v>
       </c>
-      <c r="AB116"/>
       <c r="AC116"/>
-      <c r="AE116" s="5" t="s">
+      <c r="AE116" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AF116" s="5" t="s">
+      <c r="AF116" t="s">
         <v>84</v>
       </c>
       <c r="AG116" t="s">
@@ -8741,12 +8703,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>123</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D117" t="s">
         <v>35</v>
@@ -8758,13 +8720,13 @@
         <v>37</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M117" t="s">
         <v>46</v>
@@ -8799,9 +8761,7 @@
       <c r="AA117" t="s">
         <v>46</v>
       </c>
-      <c r="AB117"/>
       <c r="AC117"/>
-      <c r="AE117" s="4"/>
       <c r="AG117" t="s">
         <v>46</v>
       </c>
@@ -8809,12 +8769,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D118" t="s">
         <v>35</v>
@@ -8826,13 +8786,13 @@
         <v>37</v>
       </c>
       <c r="H118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J118" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M118" t="s">
         <v>49</v>
@@ -8864,11 +8824,11 @@
       <c r="AA118" t="s">
         <v>90</v>
       </c>
-      <c r="AB118" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC118" s="4" t="s">
-        <v>146</v>
+      <c r="AE118" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>193</v>
       </c>
       <c r="AG118" t="s">
         <v>49</v>
@@ -8877,12 +8837,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D119" t="s">
         <v>35</v>
@@ -8894,13 +8854,13 @@
         <v>37</v>
       </c>
       <c r="H119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J119" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M119" t="s">
         <v>55</v>
@@ -8912,7 +8872,7 @@
         <v>56</v>
       </c>
       <c r="P119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R119">
         <v>4</v>
@@ -8926,7 +8886,6 @@
       <c r="U119">
         <v>10</v>
       </c>
-      <c r="AB119"/>
       <c r="AC119"/>
       <c r="AG119" t="s">
         <v>59</v>
@@ -8935,12 +8894,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D120" t="s">
         <v>35</v>
@@ -8952,13 +8911,13 @@
         <v>37</v>
       </c>
       <c r="H120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M120" t="s">
         <v>39</v>
@@ -8994,7 +8953,7 @@
         <v>39</v>
       </c>
       <c r="AC120"/>
-      <c r="AE120" t="s">
+      <c r="AE120" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AG120" t="s">
@@ -9004,12 +8963,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D121" t="s">
         <v>35</v>
@@ -9021,13 +8980,13 @@
         <v>37</v>
       </c>
       <c r="H121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M121" t="s">
         <v>46</v>
@@ -9071,12 +9030,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D122" t="s">
         <v>35</v>
@@ -9088,13 +9047,13 @@
         <v>37</v>
       </c>
       <c r="H122" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M122" t="s">
         <v>49</v>
@@ -9106,7 +9065,7 @@
         <v>50</v>
       </c>
       <c r="P122" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="R122">
         <v>3</v>
@@ -9126,12 +9085,12 @@
       <c r="AA122" t="s">
         <v>90</v>
       </c>
-      <c r="AB122" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC122" s="4" t="s">
+      <c r="AE122" t="s">
         <v>148</v>
       </c>
+      <c r="AF122" t="s">
+        <v>194</v>
+      </c>
       <c r="AG122" t="s">
         <v>49</v>
       </c>
@@ -9139,12 +9098,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D123" t="s">
         <v>35</v>
@@ -9156,13 +9115,13 @@
         <v>37</v>
       </c>
       <c r="H123" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M123" t="s">
         <v>55</v>
@@ -9174,7 +9133,7 @@
         <v>56</v>
       </c>
       <c r="P123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R123">
         <v>4</v>
@@ -9188,7 +9147,6 @@
       <c r="U123">
         <v>10</v>
       </c>
-      <c r="AB123"/>
       <c r="AC123"/>
       <c r="AG123" t="s">
         <v>59</v>
@@ -9197,7 +9155,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>99</v>
       </c>
@@ -9214,10 +9172,10 @@
         <v>37</v>
       </c>
       <c r="H124" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L124" t="s">
         <v>101</v>
@@ -9256,7 +9214,7 @@
         <v>39</v>
       </c>
       <c r="AC124"/>
-      <c r="AE124" t="s">
+      <c r="AE124" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF124" t="s">
@@ -9269,7 +9227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>99</v>
       </c>
@@ -9286,10 +9244,10 @@
         <v>37</v>
       </c>
       <c r="H125" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J125" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L125" t="s">
         <v>101</v>
@@ -9336,7 +9294,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>99</v>
       </c>
@@ -9353,10 +9311,10 @@
         <v>37</v>
       </c>
       <c r="H126" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L126" t="s">
         <v>101</v>
@@ -9371,7 +9329,7 @@
         <v>50</v>
       </c>
       <c r="P126" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="R126">
         <v>3</v>
@@ -9391,11 +9349,12 @@
       <c r="AA126" t="s">
         <v>90</v>
       </c>
-      <c r="AB126" s="4" t="s">
+      <c r="AC126"/>
+      <c r="AE126" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AC126" t="s">
-        <v>101</v>
+      <c r="AF126" t="s">
+        <v>99</v>
       </c>
       <c r="AG126" t="s">
         <v>49</v>
@@ -9404,7 +9363,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>99</v>
       </c>
@@ -9421,10 +9380,10 @@
         <v>37</v>
       </c>
       <c r="H127" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L127" t="s">
         <v>101</v>
@@ -9439,7 +9398,7 @@
         <v>56</v>
       </c>
       <c r="P127" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R127">
         <v>4</v>
@@ -9454,6 +9413,7 @@
         <v>10</v>
       </c>
       <c r="AC127"/>
+      <c r="AE127" s="4"/>
       <c r="AG127" t="s">
         <v>59</v>
       </c>
@@ -9461,7 +9421,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>107</v>
       </c>
@@ -9478,10 +9438,10 @@
         <v>37</v>
       </c>
       <c r="H128" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L128" t="s">
         <v>109</v>
@@ -9520,7 +9480,7 @@
         <v>39</v>
       </c>
       <c r="AC128"/>
-      <c r="AE128" t="s">
+      <c r="AE128" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF128" t="s">
@@ -9533,7 +9493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>107</v>
       </c>
@@ -9550,10 +9510,10 @@
         <v>37</v>
       </c>
       <c r="H129" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L129" t="s">
         <v>109</v>
@@ -9600,7 +9560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>107</v>
       </c>
@@ -9617,10 +9577,10 @@
         <v>37</v>
       </c>
       <c r="H130" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J130" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L130" t="s">
         <v>109</v>
@@ -9635,7 +9595,7 @@
         <v>50</v>
       </c>
       <c r="P130" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="R130">
         <v>3</v>
@@ -9655,11 +9615,12 @@
       <c r="AA130" t="s">
         <v>90</v>
       </c>
-      <c r="AB130" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC130" t="s">
-        <v>109</v>
+      <c r="AC130"/>
+      <c r="AE130" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF130" t="s">
+        <v>107</v>
       </c>
       <c r="AG130" t="s">
         <v>49</v>
@@ -9668,7 +9629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>107</v>
       </c>
@@ -9685,10 +9646,10 @@
         <v>37</v>
       </c>
       <c r="H131" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L131" t="s">
         <v>109</v>
@@ -9703,7 +9664,7 @@
         <v>56</v>
       </c>
       <c r="P131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R131">
         <v>4</v>
@@ -9718,6 +9679,7 @@
         <v>10</v>
       </c>
       <c r="AC131"/>
+      <c r="AE131" s="4"/>
       <c r="AG131" t="s">
         <v>59</v>
       </c>
@@ -9725,7 +9687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>111</v>
       </c>
@@ -9742,10 +9704,10 @@
         <v>37</v>
       </c>
       <c r="H132" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J132" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L132" t="s">
         <v>113</v>
@@ -9784,7 +9746,7 @@
         <v>39</v>
       </c>
       <c r="AC132"/>
-      <c r="AE132" t="s">
+      <c r="AE132" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF132" t="s">
@@ -9797,7 +9759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>111</v>
       </c>
@@ -9814,10 +9776,10 @@
         <v>37</v>
       </c>
       <c r="H133" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L133" t="s">
         <v>113</v>
@@ -9864,7 +9826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>111</v>
       </c>
@@ -9881,10 +9843,10 @@
         <v>37</v>
       </c>
       <c r="H134" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J134" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L134" t="s">
         <v>113</v>
@@ -9899,7 +9861,7 @@
         <v>50</v>
       </c>
       <c r="P134" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="R134">
         <v>3</v>
@@ -9919,11 +9881,12 @@
       <c r="AA134" t="s">
         <v>90</v>
       </c>
-      <c r="AB134" t="s">
+      <c r="AC134"/>
+      <c r="AE134" t="s">
         <v>114</v>
       </c>
-      <c r="AC134" t="s">
-        <v>113</v>
+      <c r="AF134" t="s">
+        <v>111</v>
       </c>
       <c r="AG134" t="s">
         <v>49</v>
@@ -9932,7 +9895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>111</v>
       </c>
@@ -9949,10 +9912,10 @@
         <v>37</v>
       </c>
       <c r="H135" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L135" t="s">
         <v>113</v>
@@ -9967,7 +9930,7 @@
         <v>56</v>
       </c>
       <c r="P135" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R135">
         <v>4</v>
@@ -9982,6 +9945,7 @@
         <v>10</v>
       </c>
       <c r="AC135"/>
+      <c r="AE135" s="4"/>
       <c r="AG135" t="s">
         <v>59</v>
       </c>
@@ -9989,7 +9953,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>115</v>
       </c>
@@ -10006,10 +9970,10 @@
         <v>37</v>
       </c>
       <c r="H136" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J136" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L136" t="s">
         <v>117</v>
@@ -10048,7 +10012,7 @@
         <v>39</v>
       </c>
       <c r="AC136"/>
-      <c r="AE136" t="s">
+      <c r="AE136" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF136" t="s">
@@ -10061,7 +10025,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>115</v>
       </c>
@@ -10078,10 +10042,10 @@
         <v>37</v>
       </c>
       <c r="H137" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J137" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L137" t="s">
         <v>117</v>
@@ -10128,7 +10092,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>115</v>
       </c>
@@ -10145,10 +10109,10 @@
         <v>37</v>
       </c>
       <c r="H138" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J138" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L138" t="s">
         <v>117</v>
@@ -10163,7 +10127,7 @@
         <v>50</v>
       </c>
       <c r="P138" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="R138">
         <v>3</v>
@@ -10183,11 +10147,12 @@
       <c r="AA138" t="s">
         <v>90</v>
       </c>
-      <c r="AB138" t="s">
+      <c r="AC138"/>
+      <c r="AE138" t="s">
         <v>118</v>
       </c>
-      <c r="AC138" t="s">
-        <v>117</v>
+      <c r="AF138" t="s">
+        <v>115</v>
       </c>
       <c r="AG138" t="s">
         <v>49</v>
@@ -10196,7 +10161,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>115</v>
       </c>
@@ -10213,10 +10178,10 @@
         <v>37</v>
       </c>
       <c r="H139" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L139" t="s">
         <v>117</v>
@@ -10231,7 +10196,7 @@
         <v>56</v>
       </c>
       <c r="P139" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R139">
         <v>4</v>
@@ -10246,6 +10211,7 @@
         <v>10</v>
       </c>
       <c r="AC139"/>
+      <c r="AE139" s="4"/>
       <c r="AG139" t="s">
         <v>59</v>
       </c>
@@ -10253,12 +10219,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>123</v>
       </c>
       <c r="C140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D140" t="s">
         <v>35</v>
@@ -10270,13 +10236,13 @@
         <v>37</v>
       </c>
       <c r="H140" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M140" t="s">
         <v>39</v>
@@ -10312,7 +10278,7 @@
         <v>39</v>
       </c>
       <c r="AC140"/>
-      <c r="AE140" t="s">
+      <c r="AE140" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF140" t="s">
@@ -10325,12 +10291,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>123</v>
       </c>
       <c r="C141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D141" t="s">
         <v>35</v>
@@ -10342,13 +10308,13 @@
         <v>37</v>
       </c>
       <c r="H141" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M141" t="s">
         <v>46</v>
@@ -10392,12 +10358,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>123</v>
       </c>
       <c r="C142" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D142" t="s">
         <v>35</v>
@@ -10409,13 +10375,13 @@
         <v>37</v>
       </c>
       <c r="H142" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M142" t="s">
         <v>49</v>
@@ -10427,7 +10393,7 @@
         <v>50</v>
       </c>
       <c r="P142" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="R142">
         <v>3</v>
@@ -10447,12 +10413,13 @@
       <c r="AA142" t="s">
         <v>90</v>
       </c>
-      <c r="AB142" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC142" t="s">
+      <c r="AC142"/>
+      <c r="AE142" t="s">
         <v>151</v>
       </c>
+      <c r="AF142" t="s">
+        <v>192</v>
+      </c>
       <c r="AG142" t="s">
         <v>49</v>
       </c>
@@ -10460,12 +10427,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>123</v>
       </c>
       <c r="C143" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -10477,13 +10444,13 @@
         <v>37</v>
       </c>
       <c r="H143" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M143" t="s">
         <v>55</v>
@@ -10495,7 +10462,7 @@
         <v>56</v>
       </c>
       <c r="P143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R143">
         <v>4</v>
@@ -10510,6 +10477,7 @@
         <v>10</v>
       </c>
       <c r="AC143"/>
+      <c r="AE143" s="4"/>
       <c r="AG143" t="s">
         <v>59</v>
       </c>
@@ -10517,7 +10485,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>119</v>
       </c>
@@ -10534,10 +10502,10 @@
         <v>37</v>
       </c>
       <c r="H144" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L144" t="s">
         <v>121</v>
@@ -10576,7 +10544,7 @@
         <v>39</v>
       </c>
       <c r="AC144"/>
-      <c r="AE144" t="s">
+      <c r="AE144" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF144" t="s">
@@ -10589,7 +10557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>119</v>
       </c>
@@ -10606,10 +10574,10 @@
         <v>37</v>
       </c>
       <c r="H145" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L145" t="s">
         <v>121</v>
@@ -10656,7 +10624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>119</v>
       </c>
@@ -10673,10 +10641,10 @@
         <v>37</v>
       </c>
       <c r="H146" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L146" t="s">
         <v>121</v>
@@ -10691,7 +10659,7 @@
         <v>50</v>
       </c>
       <c r="P146" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="R146">
         <v>3</v>
@@ -10711,11 +10679,12 @@
       <c r="AA146" t="s">
         <v>90</v>
       </c>
-      <c r="AB146" t="s">
+      <c r="AC146"/>
+      <c r="AE146" t="s">
         <v>122</v>
       </c>
-      <c r="AC146" t="s">
-        <v>121</v>
+      <c r="AF146" t="s">
+        <v>119</v>
       </c>
       <c r="AG146" t="s">
         <v>49</v>
@@ -10724,7 +10693,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>119</v>
       </c>
@@ -10741,10 +10710,10 @@
         <v>37</v>
       </c>
       <c r="H147" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J147" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L147" t="s">
         <v>121</v>
@@ -10759,7 +10728,7 @@
         <v>56</v>
       </c>
       <c r="P147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R147">
         <v>4</v>
@@ -10774,6 +10743,7 @@
         <v>10</v>
       </c>
       <c r="AC147"/>
+      <c r="AE147" s="4"/>
       <c r="AG147" t="s">
         <v>59</v>
       </c>
@@ -10781,7 +10751,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>123</v>
       </c>
@@ -10798,10 +10768,10 @@
         <v>37</v>
       </c>
       <c r="H148" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J148" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L148" t="s">
         <v>125</v>
@@ -10840,7 +10810,7 @@
         <v>39</v>
       </c>
       <c r="AC148"/>
-      <c r="AE148" t="s">
+      <c r="AE148" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AF148" t="s">
@@ -10853,7 +10823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>123</v>
       </c>
@@ -10870,10 +10840,10 @@
         <v>37</v>
       </c>
       <c r="H149" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L149" t="s">
         <v>125</v>
@@ -10920,7 +10890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>123</v>
       </c>
@@ -10937,10 +10907,10 @@
         <v>37</v>
       </c>
       <c r="H150" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J150" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L150" t="s">
         <v>125</v>
@@ -10955,7 +10925,7 @@
         <v>50</v>
       </c>
       <c r="P150" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="R150">
         <v>3</v>
@@ -10975,11 +10945,12 @@
       <c r="AA150" t="s">
         <v>90</v>
       </c>
-      <c r="AB150" t="s">
+      <c r="AC150"/>
+      <c r="AE150" t="s">
         <v>126</v>
       </c>
-      <c r="AC150" t="s">
-        <v>125</v>
+      <c r="AF150" t="s">
+        <v>123</v>
       </c>
       <c r="AG150" t="s">
         <v>49</v>
@@ -10988,7 +10959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>123</v>
       </c>
@@ -11005,10 +10976,10 @@
         <v>37</v>
       </c>
       <c r="H151" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J151" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L151" t="s">
         <v>125</v>
@@ -11023,7 +10994,7 @@
         <v>56</v>
       </c>
       <c r="P151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R151">
         <v>4</v>
@@ -11045,7 +11016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>71</v>
       </c>
@@ -11065,7 +11036,7 @@
         <v>72</v>
       </c>
       <c r="J152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L152" t="s">
         <v>73</v>
@@ -11118,7 +11089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>71</v>
       </c>
@@ -11138,7 +11109,7 @@
         <v>72</v>
       </c>
       <c r="J153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L153" t="s">
         <v>73</v>
@@ -11179,7 +11150,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>71</v>
       </c>
@@ -11199,7 +11170,7 @@
         <v>72</v>
       </c>
       <c r="J154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L154" t="s">
         <v>73</v>
@@ -11249,7 +11220,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>71</v>
       </c>
@@ -11269,7 +11240,7 @@
         <v>72</v>
       </c>
       <c r="J155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L155" t="s">
         <v>73</v>
